--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -3270,8 +3270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3302,7 +3302,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3312,7 +3312,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4227,7 +4227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
@@ -13157,18 +13157,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13190,14 +13190,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -13211,4 +13203,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="8" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -33,9 +33,11 @@
     <sheet name="OFM" sheetId="19" r:id="rId19"/>
     <sheet name="PIMS-II" sheetId="20" r:id="rId20"/>
     <sheet name="EDAM" sheetId="21" r:id="rId21"/>
+    <sheet name="RXNO" sheetId="22" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List_zu_betrachtende_Ontologien!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="465">
   <si>
     <t>Ontology</t>
   </si>
@@ -1484,12 +1486,30 @@
   <si>
     <t>Orphaned ontology! Contains plenty of reaction classes, also catalytic ones. Only classifies broadly and does not contain many relations.</t>
   </si>
+  <si>
+    <t>RXNO: name reaction ontology</t>
+  </si>
+  <si>
+    <t>It contains more than 500 classes representing organic reactions such as the Diels–Alder cyclization.</t>
+  </si>
+  <si>
+    <t>CC-BY-4.0 license</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/RXNO_Ontology</t>
+  </si>
+  <si>
+    <t>Colin Batchelor et al. , Royal Society of Chemistry (RSC)</t>
+  </si>
+  <si>
+    <t>Multiple maintainers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,6 +1594,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1837,7 +1864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1992,6 +2019,7 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -2283,7 +2311,7 @@
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3270,7 +3298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3740,7 +3768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
@@ -6150,7 +6178,7 @@
   <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6626,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7079,101 +7107,35 @@
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-    <hyperlink ref="A23" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7623,101 +7585,34 @@
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7766,7 +7661,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
@@ -7798,7 +7693,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>101</v>
       </c>
@@ -7862,7 +7757,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>114</v>
       </c>
@@ -7894,7 +7789,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>119</v>
       </c>
@@ -7926,7 +7821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +7885,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>136</v>
       </c>
@@ -8054,7 +7949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>148</v>
       </c>
@@ -8084,7 +7979,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>154</v>
       </c>
@@ -8144,7 +8039,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>166</v>
       </c>
@@ -8202,7 +8097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>179</v>
       </c>
@@ -8230,7 +8125,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>185</v>
       </c>
@@ -8288,7 +8183,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>195</v>
       </c>
@@ -8318,7 +8213,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>168</v>
       </c>
@@ -8428,7 +8323,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>220</v>
       </c>
@@ -8458,7 +8353,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>226</v>
       </c>
@@ -8515,7 +8410,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>228</v>
       </c>
@@ -8529,7 +8424,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>230</v>
       </c>
@@ -8543,7 +8438,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>232</v>
       </c>
@@ -8565,7 +8460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
         <v>448</v>
       </c>
@@ -8610,6 +8505,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J34">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="be"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
@@ -8651,10 +8553,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9099,101 +9001,35 @@
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-    <hyperlink ref="A31" r:id="rId2" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
+    <hyperlink ref="A31" r:id="rId1" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A93" sqref="A1:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9638,94 +9474,432 @@
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-    <hyperlink ref="A31" r:id="rId2" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
-    <hyperlink ref="A15" r:id="rId3"/>
-    <hyperlink ref="A23" r:id="rId4"/>
+    <hyperlink ref="A31" r:id="rId1" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71"/>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38"/>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="39"/>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="39"/>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>460</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13157,18 +13331,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13190,6 +13364,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -13203,12 +13385,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="8" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="470">
   <si>
     <t>Ontology</t>
   </si>
@@ -817,9 +817,6 @@
   </si>
   <si>
     <t xml:space="preserve">CC-BY-4.0 license </t>
-  </si>
-  <si>
-    <t>104ms HermiT 1.4.3.456, 25ms FaCT++ 1.6.8</t>
   </si>
   <si>
     <t>25ms</t>
@@ -922,9 +919,6 @@
     <t>Creative commons 3.0</t>
   </si>
   <si>
-    <t>in 431 ms by HermiT; in 39 ms by FaCT++</t>
-  </si>
-  <si>
     <t>39ms</t>
   </si>
   <si>
@@ -989,9 +983,6 @@
   </si>
   <si>
     <t>Creative Commons 4.0</t>
-  </si>
-  <si>
-    <t>360 ms by HermiT; 118 ms by FaCT++_x000D_</t>
   </si>
   <si>
     <t>118ms</t>
@@ -1205,9 +1196,6 @@
     <t>https://ontobee.org/ontology/REX</t>
   </si>
   <si>
-    <t>185 ms by HermiT; 33 ms by FaCT++</t>
-  </si>
-  <si>
     <t>33ms</t>
   </si>
   <si>
@@ -1244,9 +1232,6 @@
     <t xml:space="preserve">Artistic-2.0 license </t>
   </si>
   <si>
-    <t>48 ms by HermiT; 11 ms by FaCT++</t>
-  </si>
-  <si>
     <t>11 ms</t>
   </si>
   <si>
@@ -1289,9 +1274,6 @@
     <t>CC-BY-4.0 license ? The emmo repo is cc-by-4 the subrepo which should have its own licence has none attached</t>
   </si>
   <si>
-    <t>15ms</t>
-  </si>
-  <si>
     <t>http://emmo.info/domain-crystallography/cif_top</t>
   </si>
   <si>
@@ -1490,9 +1472,6 @@
     <t>RXNO: name reaction ontology</t>
   </si>
   <si>
-    <t>It contains more than 500 classes representing organic reactions such as the Diels–Alder cyclization.</t>
-  </si>
-  <si>
     <t>CC-BY-4.0 license</t>
   </si>
   <si>
@@ -1503,6 +1482,42 @@
   </si>
   <si>
     <t>Multiple maintainers</t>
+  </si>
+  <si>
+    <t>https://github.com/rsc-ontologies/rxno/tree/master/docs</t>
+  </si>
+  <si>
+    <t>FaCT++, HermiT</t>
+  </si>
+  <si>
+    <t>182 ms</t>
+  </si>
+  <si>
+    <t>41 ms</t>
+  </si>
+  <si>
+    <t>31 ms</t>
+  </si>
+  <si>
+    <t>15 ms</t>
+  </si>
+  <si>
+    <t>HermiT, FaCT++</t>
+  </si>
+  <si>
+    <t>HermiT, FaCT++_x000D_</t>
+  </si>
+  <si>
+    <t>some OBO and BFO but not complete TLO contained in ontology</t>
+  </si>
+  <si>
+    <t>chebi,dc,obo,oboInOwl,owl,rdf,rdfs,terms,xml,xsd</t>
+  </si>
+  <si>
+    <t>rdfs:label, IAO_0000115 for definitions</t>
+  </si>
+  <si>
+    <t>It contains more than 500 classes representing organic reactions such as the Diels–Alder cyclization. The documentation also contains a good overview on how to reuse the classes contained in this ontology.</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2020,6 +2035,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1"/>
@@ -2437,7 +2456,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -2832,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2864,7 +2883,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2874,7 +2893,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2884,7 +2903,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2894,7 +2913,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2909,7 +2928,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2919,7 +2938,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2929,7 +2948,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2939,17 +2958,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2959,12 +2978,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -2974,7 +2993,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -2984,7 +3003,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -2994,7 +3013,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3004,7 +3023,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -3014,7 +3033,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3024,7 +3043,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3034,7 +3053,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3044,7 +3063,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3279,7 +3298,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -3298,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3330,7 +3349,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3350,7 +3369,7 @@
     </row>
     <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3360,7 +3379,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3375,7 +3394,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3385,7 +3404,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3395,7 +3414,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3405,17 +3424,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3425,12 +3444,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -3440,7 +3459,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -3450,7 +3469,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3460,7 +3479,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3470,7 +3489,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -3480,7 +3499,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3490,7 +3509,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3500,7 +3519,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3510,7 +3529,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3745,7 +3764,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -3768,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3790,7 +3809,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3820,7 +3839,7 @@
     </row>
     <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3830,7 +3849,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3845,7 +3864,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3855,7 +3874,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3875,17 +3894,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3895,12 +3914,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -3920,7 +3939,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3930,7 +3949,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3950,7 +3969,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3960,7 +3979,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3970,7 +3989,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3980,7 +3999,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4215,12 +4234,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -4255,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4277,7 +4296,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4362,12 +4381,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -4382,12 +4401,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -4407,7 +4426,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -4417,7 +4436,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -4427,7 +4446,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -4437,7 +4456,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -4447,7 +4466,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -4457,7 +4476,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -4467,7 +4486,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4602,7 +4621,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -4702,7 +4721,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -4733,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4785,7 +4804,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4795,7 +4814,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4810,7 +4829,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4820,7 +4839,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4841,17 +4860,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4861,7 +4880,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4886,7 +4905,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4896,7 +4915,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -4906,7 +4925,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -4916,7 +4935,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -4926,7 +4945,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -4936,7 +4955,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -4946,7 +4965,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5081,7 +5100,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -5181,7 +5200,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -5213,7 +5232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -5235,7 +5254,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5265,7 +5284,7 @@
     </row>
     <row r="9" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5275,7 +5294,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5290,7 +5309,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5300,7 +5319,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5310,7 +5329,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5320,17 +5339,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5340,12 +5359,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -5355,7 +5374,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -5365,7 +5384,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -5375,7 +5394,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -5395,7 +5414,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -5405,7 +5424,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -5415,7 +5434,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -5425,7 +5444,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5660,7 +5679,7 @@
     </row>
     <row r="93" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -5696,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5718,7 +5737,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5728,7 +5747,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5738,7 +5757,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5784,7 +5803,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C17" s="71"/>
     </row>
@@ -5810,7 +5829,7 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5825,12 +5844,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5840,7 +5859,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5850,7 +5869,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5870,7 +5889,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -5890,7 +5909,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -5910,7 +5929,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6145,7 +6164,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6177,7 +6196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6209,7 +6228,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6219,7 +6238,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6229,7 +6248,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6254,7 +6273,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6264,7 +6283,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6274,7 +6293,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6284,17 +6303,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6304,7 +6323,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -6329,7 +6348,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -6359,7 +6378,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -6369,7 +6388,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6379,7 +6398,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -6389,7 +6408,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6624,7 +6643,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6656,8 +6675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6678,7 +6697,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6708,7 +6727,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6718,7 +6737,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6733,7 +6752,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6743,7 +6762,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6753,7 +6772,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6768,12 +6787,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6783,12 +6802,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -6798,7 +6817,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -6808,7 +6827,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -6827,8 +6846,8 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
-        <v>31</v>
+      <c r="A35" s="39" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -6838,7 +6857,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -6848,7 +6867,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6868,7 +6887,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7103,7 +7122,7 @@
     </row>
     <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -7134,8 +7153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7156,7 +7175,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7186,7 +7205,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7196,7 +7215,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7211,7 +7230,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7221,7 +7240,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7246,7 +7265,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -7261,12 +7280,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -7276,7 +7295,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -7305,8 +7324,8 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
-        <v>41</v>
+      <c r="A35" s="39" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -7316,7 +7335,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -7326,7 +7345,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -7581,7 +7600,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -7610,9 +7629,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8156,10 +8175,12 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
@@ -8462,7 +8483,7 @@
     </row>
     <row r="30" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>102</v>
@@ -8483,7 +8504,7 @@
       </c>
       <c r="B32">
         <f>COUNTA(B2:B29)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8492,7 +8513,7 @@
       </c>
       <c r="B33">
         <f>COUNTIF(B2:B29,"x")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8501,7 +8522,7 @@
       </c>
       <c r="B34">
         <f>B32/B31*100</f>
-        <v>85.714285714285708</v>
+        <v>89.285714285714292</v>
       </c>
     </row>
   </sheetData>
@@ -8555,7 +8576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -8607,7 +8628,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8617,7 +8638,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8632,7 +8653,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8642,7 +8663,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8667,12 +8688,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8682,12 +8703,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -8697,7 +8718,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -8707,7 +8728,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -8717,7 +8738,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -8727,7 +8748,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -8737,7 +8758,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -8747,7 +8768,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -8767,7 +8788,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8997,7 +9018,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -9028,8 +9049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A93" sqref="A1:A93"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9050,7 +9071,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9080,7 +9101,7 @@
     </row>
     <row r="9" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9090,7 +9111,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9105,7 +9126,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9115,7 +9136,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9125,7 +9146,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9135,17 +9156,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9155,12 +9176,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -9170,7 +9191,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -9180,7 +9201,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -9190,7 +9211,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -9200,7 +9221,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -9210,7 +9231,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -9220,7 +9241,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -9240,7 +9261,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9470,7 +9491,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -9503,8 +9524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9524,7 +9545,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9554,7 +9575,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9564,7 +9585,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9599,7 +9620,9 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
+      <c r="A19" s="71" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
@@ -9613,12 +9636,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9629,7 +9652,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -9644,7 +9672,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -9652,32 +9680,59 @@
         <v>27</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="75" t="s">
+        <v>459</v>
+      </c>
+    </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
+      <c r="A35" s="39" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="76" t="s">
+        <v>466</v>
+      </c>
+    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9693,7 +9748,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9733,7 +9788,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9753,7 +9808,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9773,7 +9828,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9793,7 +9848,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9813,7 +9868,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9828,7 +9883,9 @@
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38"/>
+      <c r="A76" s="38">
+        <v>8342</v>
+      </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A77" s="37" t="s">
@@ -9836,7 +9893,9 @@
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
+      <c r="A78" s="39">
+        <v>1730</v>
+      </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A79" s="37" t="s">
@@ -9844,7 +9903,9 @@
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
+      <c r="A80" s="39">
+        <v>1068</v>
+      </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A81" s="37" t="s">
@@ -9852,7 +9913,9 @@
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
+      <c r="A82" s="39">
+        <v>1019</v>
+      </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A83" s="37" t="s">
@@ -9860,7 +9923,9 @@
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
+      <c r="A84" s="39">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A85" s="37" t="s">
@@ -9868,7 +9933,9 @@
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
+      <c r="A86" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A87" s="37" t="s">
@@ -9876,7 +9943,9 @@
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
+      <c r="A88" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A89" s="37" t="s">
@@ -9884,7 +9953,9 @@
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
+      <c r="A90" s="39">
+        <v>35</v>
+      </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9894,7 +9965,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -9907,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10020,7 +10091,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -10036,7 +10107,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10385,8 +10456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10496,7 +10567,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -10511,7 +10582,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10546,7 +10617,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -10556,7 +10627,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -10566,7 +10637,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -10586,7 +10657,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -10596,7 +10667,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10826,17 +10897,17 @@
     </row>
     <row r="93" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -10855,7 +10926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -10877,7 +10948,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10907,7 +10978,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10917,7 +10988,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10932,7 +11003,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10942,7 +11013,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10952,7 +11023,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10962,17 +11033,17 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10982,12 +11053,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11007,7 +11078,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11037,7 +11108,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11047,7 +11118,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11202,7 +11273,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11297,7 +11368,7 @@
     </row>
     <row r="93" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -11316,8 +11387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11367,7 +11438,7 @@
     </row>
     <row r="9" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -11377,7 +11448,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -11415,7 +11486,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -11425,17 +11496,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -11448,12 +11519,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -11463,7 +11534,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -11473,7 +11544,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -11483,7 +11554,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>279</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -11493,7 +11564,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -11503,7 +11574,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -11513,7 +11584,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -11523,7 +11594,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -11533,7 +11604,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -11775,7 +11846,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -11794,8 +11865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11846,7 +11917,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11881,7 +11952,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11906,12 +11977,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11921,12 +11992,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -11936,7 +12007,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -11946,7 +12017,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -11956,7 +12027,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -11976,7 +12047,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -11986,7 +12057,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -11996,7 +12067,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -12006,7 +12077,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12241,7 +12312,7 @@
     </row>
     <row r="93" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -12275,7 +12346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12297,7 +12368,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12307,7 +12378,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12327,7 +12398,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12337,7 +12408,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12352,7 +12423,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12362,7 +12433,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12387,12 +12458,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12402,12 +12473,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12417,7 +12488,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12427,7 +12498,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12437,7 +12508,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12447,7 +12518,7 @@
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12457,7 +12528,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12467,7 +12538,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12477,7 +12548,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12487,7 +12558,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12622,7 +12693,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12722,7 +12793,7 @@
     </row>
     <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -12734,8 +12805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12756,7 +12827,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12786,7 +12857,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12796,7 +12867,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12821,7 +12892,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12846,7 +12917,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -12861,12 +12932,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -12876,7 +12947,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -12886,7 +12957,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -12896,7 +12967,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -12906,7 +12977,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -12916,7 +12987,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -12926,7 +12997,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -12936,7 +13007,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -12946,7 +13017,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13181,7 +13252,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -13199,6 +13270,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -13330,22 +13416,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13361,28 +13456,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -33,9 +33,11 @@
     <sheet name="OFM" sheetId="19" r:id="rId19"/>
     <sheet name="PIMS-II" sheetId="20" r:id="rId20"/>
     <sheet name="EDAM" sheetId="21" r:id="rId21"/>
+    <sheet name="RXNO" sheetId="22" r:id="rId22"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List_zu_betrachtende_Ontologien!$A$1:$J$34</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="470">
   <si>
     <t>Ontology</t>
   </si>
@@ -815,9 +817,6 @@
   </si>
   <si>
     <t xml:space="preserve">CC-BY-4.0 license </t>
-  </si>
-  <si>
-    <t>104ms HermiT 1.4.3.456, 25ms FaCT++ 1.6.8</t>
   </si>
   <si>
     <t>25ms</t>
@@ -920,9 +919,6 @@
     <t>Creative commons 3.0</t>
   </si>
   <si>
-    <t>in 431 ms by HermiT; in 39 ms by FaCT++</t>
-  </si>
-  <si>
     <t>39ms</t>
   </si>
   <si>
@@ -987,9 +983,6 @@
   </si>
   <si>
     <t>Creative Commons 4.0</t>
-  </si>
-  <si>
-    <t>360 ms by HermiT; 118 ms by FaCT++_x000D_</t>
   </si>
   <si>
     <t>118ms</t>
@@ -1203,9 +1196,6 @@
     <t>https://ontobee.org/ontology/REX</t>
   </si>
   <si>
-    <t>185 ms by HermiT; 33 ms by FaCT++</t>
-  </si>
-  <si>
     <t>33ms</t>
   </si>
   <si>
@@ -1242,9 +1232,6 @@
     <t xml:space="preserve">Artistic-2.0 license </t>
   </si>
   <si>
-    <t>48 ms by HermiT; 11 ms by FaCT++</t>
-  </si>
-  <si>
     <t>11 ms</t>
   </si>
   <si>
@@ -1287,9 +1274,6 @@
     <t>CC-BY-4.0 license ? The emmo repo is cc-by-4 the subrepo which should have its own licence has none attached</t>
   </si>
   <si>
-    <t>15ms</t>
-  </si>
-  <si>
     <t>http://emmo.info/domain-crystallography/cif_top</t>
   </si>
   <si>
@@ -1483,13 +1467,64 @@
   </si>
   <si>
     <t>Orphaned ontology! Contains plenty of reaction classes, also catalytic ones. Only classifies broadly and does not contain many relations.</t>
+  </si>
+  <si>
+    <t>RXNO: name reaction ontology</t>
+  </si>
+  <si>
+    <t>CC-BY-4.0 license</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/RXNO_Ontology</t>
+  </si>
+  <si>
+    <t>Colin Batchelor et al. , Royal Society of Chemistry (RSC)</t>
+  </si>
+  <si>
+    <t>Multiple maintainers</t>
+  </si>
+  <si>
+    <t>https://github.com/rsc-ontologies/rxno/tree/master/docs</t>
+  </si>
+  <si>
+    <t>FaCT++, HermiT</t>
+  </si>
+  <si>
+    <t>182 ms</t>
+  </si>
+  <si>
+    <t>41 ms</t>
+  </si>
+  <si>
+    <t>31 ms</t>
+  </si>
+  <si>
+    <t>15 ms</t>
+  </si>
+  <si>
+    <t>HermiT, FaCT++</t>
+  </si>
+  <si>
+    <t>HermiT, FaCT++_x000D_</t>
+  </si>
+  <si>
+    <t>some OBO and BFO but not complete TLO contained in ontology</t>
+  </si>
+  <si>
+    <t>chebi,dc,obo,oboInOwl,owl,rdf,rdfs,terms,xml,xsd</t>
+  </si>
+  <si>
+    <t>rdfs:label, IAO_0000115 for definitions</t>
+  </si>
+  <si>
+    <t>It contains more than 500 classes representing organic reactions such as the Diels–Alder cyclization. The documentation also contains a good overview on how to reuse the classes contained in this ontology.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,6 +1609,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="30">
@@ -1837,7 +1879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1991,6 +2033,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2283,7 +2330,7 @@
   <dimension ref="A1:A128"/>
   <sheetViews>
     <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,7 +2456,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -2804,7 +2851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -2836,7 +2883,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2846,7 +2893,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2856,7 +2903,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2866,7 +2913,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2881,7 +2928,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2891,7 +2938,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2901,7 +2948,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2911,17 +2958,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2931,12 +2978,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -2946,7 +2993,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -2956,7 +3003,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -2966,7 +3013,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -2976,7 +3023,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -2986,7 +3033,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -2996,7 +3043,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3006,7 +3053,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3016,7 +3063,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3251,7 +3298,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -3270,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3302,7 +3349,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3322,7 +3369,7 @@
     </row>
     <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3332,7 +3379,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3347,7 +3394,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3357,7 +3404,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3367,7 +3414,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3377,17 +3424,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3397,12 +3444,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -3412,7 +3459,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -3422,7 +3469,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3432,7 +3479,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3442,7 +3489,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -3452,7 +3499,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3462,7 +3509,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3472,7 +3519,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3482,7 +3529,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3717,7 +3764,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -3740,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3762,7 +3809,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3792,7 +3839,7 @@
     </row>
     <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3802,7 +3849,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3817,7 +3864,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3827,7 +3874,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3847,17 +3894,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3867,12 +3914,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -3892,7 +3939,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3902,7 +3949,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3922,7 +3969,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3932,7 +3979,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3942,7 +3989,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3952,7 +3999,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4187,12 +4234,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -4227,8 +4274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4249,7 +4296,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4334,12 +4381,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -4354,12 +4401,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -4379,7 +4426,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -4389,7 +4436,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>365</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -4399,7 +4446,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -4409,7 +4456,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -4419,7 +4466,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -4429,7 +4476,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -4439,7 +4486,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4574,7 +4621,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -4674,7 +4721,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -4705,8 +4752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4757,7 +4804,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4767,7 +4814,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4782,7 +4829,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4792,7 +4839,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4813,17 +4860,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4833,7 +4880,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4858,7 +4905,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4868,7 +4915,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -4878,7 +4925,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -4888,7 +4935,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -4898,7 +4945,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -4908,7 +4955,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -4918,7 +4965,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5053,7 +5100,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -5153,7 +5200,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -5185,7 +5232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
@@ -5207,7 +5254,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5237,7 +5284,7 @@
     </row>
     <row r="9" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5247,7 +5294,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5262,7 +5309,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5272,7 +5319,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5282,7 +5329,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5292,17 +5339,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5312,12 +5359,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -5327,7 +5374,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -5337,7 +5384,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -5347,7 +5394,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -5367,7 +5414,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -5377,7 +5424,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -5387,7 +5434,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -5397,7 +5444,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5632,7 +5679,7 @@
     </row>
     <row r="93" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -5668,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5690,7 +5737,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5700,7 +5747,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5710,7 +5757,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5756,7 +5803,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C17" s="71"/>
     </row>
@@ -5782,7 +5829,7 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5797,12 +5844,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5812,7 +5859,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5822,7 +5869,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5842,7 +5889,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>393</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -5862,7 +5909,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -5882,7 +5929,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6117,7 +6164,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6149,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6181,7 +6228,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6191,7 +6238,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6201,7 +6248,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6226,7 +6273,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6236,7 +6283,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6246,7 +6293,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6256,17 +6303,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6276,7 +6323,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -6301,7 +6348,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -6331,7 +6378,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -6341,7 +6388,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6351,7 +6398,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -6361,7 +6408,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6596,7 +6643,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6626,10 +6673,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6650,7 +6697,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6680,7 +6727,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6690,7 +6737,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6705,7 +6752,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6715,7 +6762,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6725,7 +6772,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6740,12 +6787,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6755,12 +6802,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -6770,7 +6817,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -6780,7 +6827,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -6799,8 +6846,8 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
-        <v>31</v>
+      <c r="A35" s="39" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -6810,7 +6857,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -6820,7 +6867,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6840,7 +6887,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7075,105 +7122,39 @@
     </row>
     <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-    <hyperlink ref="A23" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7194,7 +7175,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7224,7 +7205,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7234,7 +7215,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7249,7 +7230,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7259,7 +7240,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7284,7 +7265,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -7299,12 +7280,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -7314,7 +7295,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -7343,8 +7324,8 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39">
-        <v>41</v>
+      <c r="A35" s="39" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -7354,7 +7335,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -7364,7 +7345,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -7619,105 +7600,38 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7766,7 +7680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
@@ -7798,7 +7712,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>101</v>
       </c>
@@ -7862,7 +7776,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>114</v>
       </c>
@@ -7894,7 +7808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>119</v>
       </c>
@@ -7926,7 +7840,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -7990,7 +7904,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>136</v>
       </c>
@@ -8054,7 +7968,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>148</v>
       </c>
@@ -8084,7 +7998,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>154</v>
       </c>
@@ -8144,7 +8058,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>166</v>
       </c>
@@ -8202,7 +8116,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>179</v>
       </c>
@@ -8230,7 +8144,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>185</v>
       </c>
@@ -8261,10 +8175,12 @@
       </c>
     </row>
     <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="C18" s="22" t="s">
         <v>109</v>
       </c>
@@ -8288,7 +8204,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>195</v>
       </c>
@@ -8318,7 +8234,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="58" t="s">
         <v>168</v>
       </c>
@@ -8428,7 +8344,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
         <v>220</v>
       </c>
@@ -8458,7 +8374,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>226</v>
       </c>
@@ -8515,7 +8431,7 @@
       <c r="AT25"/>
       <c r="AU25"/>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>228</v>
       </c>
@@ -8529,7 +8445,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>230</v>
       </c>
@@ -8543,7 +8459,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>232</v>
       </c>
@@ -8565,9 +8481,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>102</v>
@@ -8588,7 +8504,7 @@
       </c>
       <c r="B32">
         <f>COUNTA(B2:B29)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8597,7 +8513,7 @@
       </c>
       <c r="B33">
         <f>COUNTIF(B2:B29,"x")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8606,10 +8522,17 @@
       </c>
       <c r="B34">
         <f>B32/B31*100</f>
-        <v>85.714285714285708</v>
+        <v>89.285714285714292</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J34">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="be"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
@@ -8651,10 +8574,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8705,7 +8628,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8715,7 +8638,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8730,7 +8653,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8740,7 +8663,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8765,12 +8688,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8780,12 +8703,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -8795,7 +8718,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -8805,7 +8728,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -8815,7 +8738,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -8825,7 +8748,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -8835,7 +8758,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -8845,7 +8768,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -8865,7 +8788,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9095,105 +9018,39 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
+      <c r="A107" s="15"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
+      <c r="A113" s="15"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
+      <c r="A118" s="15"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
+      <c r="A124" s="15"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
-      </c>
+      <c r="A126" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-    <hyperlink ref="A31" r:id="rId2" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
+    <hyperlink ref="A31" r:id="rId1" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A128"/>
+  <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9214,7 +9071,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9244,7 +9101,7 @@
     </row>
     <row r="9" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9254,7 +9111,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9269,7 +9126,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9279,7 +9136,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9289,7 +9146,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9299,12 +9156,487 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="71" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>34927</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="39">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="39">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="72" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="15"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" s="15"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" s="15"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A31" r:id="rId1" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -9312,6 +9644,7 @@
         <v>455</v>
       </c>
     </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>21</v>
@@ -9319,12 +9652,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -9332,19 +9665,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>345</v>
-      </c>
-    </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
-        <v>438</v>
+      <c r="A31" s="74" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -9353,8 +9681,8 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>437</v>
+      <c r="A33" s="75" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -9364,7 +9692,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>436</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -9373,8 +9701,8 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>411</v>
+      <c r="A37" s="76" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -9383,8 +9711,8 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>411</v>
+      <c r="A39" s="39" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -9393,8 +9721,8 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>120</v>
+      <c r="A41" s="39" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -9403,10 +9731,11 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>439</v>
-      </c>
-    </row>
+      <c r="A43" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>36</v>
@@ -9419,7 +9748,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9459,7 +9788,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9479,7 +9808,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9499,7 +9828,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9519,7 +9848,7 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9539,9 +9868,10 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>38</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="36" t="s">
         <v>55</v>
@@ -9554,7 +9884,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
-        <v>34927</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9564,7 +9894,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="39">
-        <v>5179</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9574,7 +9904,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="39">
-        <v>3550</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9584,7 +9914,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="39">
-        <v>3473</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9594,7 +9924,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="39">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9624,108 +9954,23 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="39">
-        <v>70</v>
-      </c>
-    </row>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="33" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="72" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>81</v>
+      <c r="A93" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A126" r:id="rId1"/>
-    <hyperlink ref="A31" r:id="rId2" display="https://www.gnu.org/licenses/lgpl-3.0.en.html"/>
-    <hyperlink ref="A15" r:id="rId3"/>
-    <hyperlink ref="A23" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9733,8 +9978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9846,7 +10091,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -9862,7 +10107,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10211,8 +10456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10322,7 +10567,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -10337,7 +10582,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10372,7 +10617,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>248</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -10382,7 +10627,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -10392,7 +10637,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -10412,7 +10657,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -10422,7 +10667,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10652,17 +10897,17 @@
     </row>
     <row r="93" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -10681,7 +10926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -10703,7 +10948,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10733,7 +10978,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10743,7 +10988,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10758,7 +11003,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10768,7 +11013,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10778,7 +11023,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10788,17 +11033,17 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10808,12 +11053,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10833,7 +11078,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10863,7 +11108,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10873,7 +11118,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11028,7 +11273,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11123,7 +11368,7 @@
     </row>
     <row r="93" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -11142,8 +11387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11193,7 +11438,7 @@
     </row>
     <row r="9" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -11203,7 +11448,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -11241,7 +11486,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -11251,17 +11496,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -11274,12 +11519,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -11289,7 +11534,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -11299,7 +11544,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -11309,7 +11554,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>279</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -11319,7 +11564,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -11329,7 +11574,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -11339,7 +11584,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -11349,7 +11594,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -11359,7 +11604,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -11601,7 +11846,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -11620,8 +11865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11672,7 +11917,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11707,7 +11952,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11732,12 +11977,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11747,12 +11992,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -11762,7 +12007,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -11772,7 +12017,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -11782,7 +12027,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -11802,7 +12047,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -11812,7 +12057,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -11822,7 +12067,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -11832,7 +12077,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12067,7 +12312,7 @@
     </row>
     <row r="93" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -12101,7 +12346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12123,7 +12368,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12133,7 +12378,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12153,7 +12398,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12163,7 +12408,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12178,7 +12423,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12188,7 +12433,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12213,12 +12458,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12228,12 +12473,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12243,7 +12488,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12253,7 +12498,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12263,7 +12508,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12273,7 +12518,7 @@
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12283,7 +12528,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12293,7 +12538,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12303,7 +12548,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12313,7 +12558,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12448,7 +12693,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12548,7 +12793,7 @@
     </row>
     <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -12560,8 +12805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12582,7 +12827,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12612,7 +12857,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12622,7 +12867,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12647,7 +12892,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12672,7 +12917,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -12687,12 +12932,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -12702,7 +12947,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -12712,7 +12957,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -12722,7 +12967,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>302</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -12732,7 +12977,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -12742,7 +12987,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -12752,7 +12997,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -12762,7 +13007,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -12772,7 +13017,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13007,7 +13252,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -13025,6 +13270,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -13156,22 +13416,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13187,28 +13456,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="19" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -34,10 +34,12 @@
     <sheet name="PIMS-II" sheetId="20" r:id="rId20"/>
     <sheet name="EDAM" sheetId="21" r:id="rId21"/>
     <sheet name="RXNO" sheetId="22" r:id="rId22"/>
+    <sheet name="MOP" sheetId="23" r:id="rId23"/>
+    <sheet name="BAO" sheetId="25" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List_zu_betrachtende_Ontologien!$A$1:$J$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">List_zu_betrachtende_Ontologien!$A$1:$J$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="489">
   <si>
     <t>Ontology</t>
   </si>
@@ -814,9 +816,6 @@
   </si>
   <si>
     <t>non inferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC-BY-4.0 license </t>
   </si>
   <si>
     <t>25ms</t>
@@ -1271,9 +1270,6 @@
     <t>unknown</t>
   </si>
   <si>
-    <t>CC-BY-4.0 license ? The emmo repo is cc-by-4 the subrepo which should have its own licence has none attached</t>
-  </si>
-  <si>
     <t>http://emmo.info/domain-crystallography/cif_top</t>
   </si>
   <si>
@@ -1472,9 +1468,6 @@
     <t>RXNO: name reaction ontology</t>
   </si>
   <si>
-    <t>CC-BY-4.0 license</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/RXNO_Ontology</t>
   </si>
   <si>
@@ -1514,10 +1507,76 @@
     <t>chebi,dc,obo,oboInOwl,owl,rdf,rdfs,terms,xml,xsd</t>
   </si>
   <si>
-    <t>rdfs:label, IAO_0000115 for definitions</t>
-  </si>
-  <si>
-    <t>It contains more than 500 classes representing organic reactions such as the Diels–Alder cyclization. The documentation also contains a good overview on how to reuse the classes contained in this ontology.</t>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>molecular process ontology</t>
+  </si>
+  <si>
+    <t>Molecular Process Ontology</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/rsc-ontologies/rxno/master/mop.owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Strongly connected with the RXNO. It contains the underlying molecular processes, for example cyclization, methylation and demethylation.</t>
+  </si>
+  <si>
+    <t>Strongly connected with the MOP. It contains more than 500 classes representing organic reactions such as the Diels–Alder cyclization. The documentation also contains a good overview on how to reuse the classes contained in this ontology.</t>
+  </si>
+  <si>
+    <t>172 ms</t>
+  </si>
+  <si>
+    <t>dc,mop,obo,oboInOwl,owl,rdf,rdfs,terms,xml,xsd</t>
+  </si>
+  <si>
+    <t>http://bioassayontology.org/</t>
+  </si>
+  <si>
+    <t>doi:10.1186/2041-1480-5-S1-S5 ; doi:10.1371/journal.pone.0049198  ; doi:10.1186/1471-2105-12-257</t>
+  </si>
+  <si>
+    <t>https://github.com/BioAssayOntology</t>
+  </si>
+  <si>
+    <t>CC-BY-4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC-BY-4.0 </t>
+  </si>
+  <si>
+    <t>CC-BY-4.0 ? The emmo repo is cc-by-4 the subrepo which should have its own licence has none attached</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/BioAssayOntology/BAO/master/bao_complete_merged.owl</t>
+  </si>
+  <si>
+    <t>Describes chemical biology screening assays and their results including high-throughput screening (HTS) data for the purpose of categorizing assays and data analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quite applied and in active development, see also here: http://bioassayontology.org/bao-bioportal/ </t>
+  </si>
+  <si>
+    <t>Hande Küçük McGinty, Janice Kranz, Joseph Ostrow, Alex Clark, Yu Lin, Saminda Abeyruwan, Uma Vempati, Kunie Sakurai, Vance Lemmon, Ubbo Visser, John Turner, Nicolette Ross, Joan Glenny-Pescov, Jiaming Hu, Caty Chung, Stephan Schurer*</t>
+  </si>
+  <si>
+    <t>University of Miami, Ontology is still actively maintained</t>
+  </si>
+  <si>
+    <t>bao,bao1,cellline,core,dc,efo,foaf,obo,oboInOwl,owl,protege,rdf,rdfs,skos,xml,xsd</t>
+  </si>
+  <si>
+    <t>non inferred, available as merged version</t>
+  </si>
+  <si>
+    <t>215 ms</t>
+  </si>
+  <si>
+    <t>rdfs:label, OBO:IAO_0000115 for textual definitions</t>
+  </si>
+  <si>
+    <t>related:narrower</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2038,6 +2097,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2456,7 +2521,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -2883,7 +2948,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2893,7 +2958,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2903,7 +2968,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2913,7 +2978,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2928,7 +2993,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2938,7 +3003,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2948,7 +3013,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -2958,17 +3023,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="40" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -2978,12 +3043,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -2993,7 +3058,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -3003,7 +3068,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3013,7 +3078,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3023,7 +3088,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -3033,7 +3098,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3043,7 +3108,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3053,7 +3118,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3063,7 +3128,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3298,7 +3363,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -3349,7 +3414,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3369,7 +3434,7 @@
     </row>
     <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3379,7 +3444,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3394,7 +3459,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3404,7 +3469,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3414,7 +3479,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3424,17 +3489,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3444,12 +3509,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -3459,7 +3524,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -3469,7 +3534,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3479,7 +3544,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3489,7 +3554,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -3499,7 +3564,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3509,7 +3574,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3519,7 +3584,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3529,7 +3594,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3764,7 +3829,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
@@ -3809,7 +3874,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3839,7 +3904,7 @@
     </row>
     <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3849,7 +3914,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3864,7 +3929,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3874,7 +3939,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -3894,17 +3959,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -3914,12 +3979,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -3939,7 +4004,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -3949,7 +4014,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -3969,7 +4034,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -3979,7 +4044,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -3989,7 +4054,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -3999,7 +4064,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -4234,12 +4299,12 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -4296,7 +4361,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4381,12 +4446,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -4401,12 +4466,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -4426,7 +4491,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -4436,7 +4501,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -4446,7 +4511,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -4456,7 +4521,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -4466,7 +4531,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -4476,7 +4541,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -4486,7 +4551,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4621,7 +4686,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -4721,7 +4786,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -4804,7 +4869,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4814,7 +4879,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4829,7 +4894,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -4839,7 +4904,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.3">
@@ -4860,17 +4925,17 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4880,7 +4945,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4905,7 +4970,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4915,7 +4980,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -4925,7 +4990,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -4935,7 +5000,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -4945,7 +5010,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -4955,7 +5020,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -4965,7 +5030,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5100,7 +5165,7 @@
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
@@ -5200,7 +5265,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -5254,7 +5319,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5284,7 +5349,7 @@
     </row>
     <row r="9" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5294,7 +5359,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5309,7 +5374,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5319,7 +5384,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5329,7 +5394,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -5339,17 +5404,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5359,12 +5424,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -5374,7 +5439,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -5384,7 +5449,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -5394,7 +5459,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -5414,7 +5479,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -5424,7 +5489,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -5434,7 +5499,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -5444,7 +5509,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5679,7 +5744,7 @@
     </row>
     <row r="93" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -5716,7 +5781,7 @@
   <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5737,7 +5802,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5747,7 +5812,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5757,7 +5822,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.3">
@@ -5803,7 +5868,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="71" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C17" s="71"/>
     </row>
@@ -5829,7 +5894,7 @@
     </row>
     <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -5844,12 +5909,12 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5859,7 +5924,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5869,7 +5934,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5889,7 +5954,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -5909,7 +5974,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -5929,7 +5994,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6164,7 +6229,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6228,7 +6293,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6238,7 +6303,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6248,7 +6313,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6273,7 +6338,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6283,7 +6348,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6293,7 +6358,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6303,17 +6368,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6323,7 +6388,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -6348,7 +6413,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -6378,7 +6443,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -6388,7 +6453,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6398,7 +6463,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -6408,7 +6473,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6643,7 +6708,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="39" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -6697,7 +6762,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6727,7 +6792,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6737,7 +6802,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6752,7 +6817,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6762,7 +6827,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6772,7 +6837,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -6787,12 +6852,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -6802,12 +6867,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -6817,7 +6882,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -6827,7 +6892,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -6847,7 +6912,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -6857,7 +6922,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -6867,7 +6932,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -6887,7 +6952,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7122,7 +7187,7 @@
     </row>
     <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -7175,7 +7240,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7205,7 +7270,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7215,7 +7280,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7230,7 +7295,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7240,7 +7305,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -7265,7 +7330,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -7280,12 +7345,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -7295,7 +7360,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -7325,7 +7390,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -7335,7 +7400,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -7345,7 +7410,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -7600,7 +7665,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -7626,12 +7691,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AU34"/>
+  <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7680,7 +7744,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>92</v>
       </c>
@@ -7712,7 +7776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>101</v>
       </c>
@@ -7776,7 +7840,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>114</v>
       </c>
@@ -7808,7 +7872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>119</v>
       </c>
@@ -7840,7 +7904,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>6</v>
       </c>
@@ -7904,7 +7968,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>136</v>
       </c>
@@ -7968,7 +8032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>148</v>
       </c>
@@ -7998,7 +8062,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>154</v>
       </c>
@@ -8058,7 +8122,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>166</v>
       </c>
@@ -8116,7 +8180,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>179</v>
       </c>
@@ -8144,7 +8208,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
         <v>185</v>
       </c>
@@ -8204,250 +8268,256 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="77" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" s="78"/>
+      <c r="C19" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>466</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="22"/>
+    </row>
+    <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B19" s="65" t="s">
+      <c r="B20" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D20" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="16" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H20" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J20" s="16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="58" t="s">
+    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="B20" s="68" t="s">
+      <c r="B21" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C21" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D21" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E21" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F21" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G21" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H21" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I21" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J21" s="27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
+    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B22" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>204</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="22"/>
       <c r="C22" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>211</v>
-      </c>
+      <c r="G22" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="31"/>
       <c r="I22" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="22"/>
+      <c r="A23" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="C23" s="22" t="s">
         <v>109</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J24" s="16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
+    <row r="25" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
         <v>220</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="71" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>226</v>
       </c>
       <c r="B25" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
-        <v>227</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-    </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="71" t="s">
+        <v>222</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B26" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="32" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+      <c r="AL26"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+      <c r="AO26"/>
+      <c r="AP26"/>
+      <c r="AQ26"/>
+      <c r="AR26"/>
+      <c r="AS26"/>
+      <c r="AT26"/>
+      <c r="AU26"/>
+    </row>
+    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="65" t="s">
         <v>93</v>
@@ -8456,83 +8526,91 @@
         <v>102</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="67" t="s">
-        <v>120</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
       <c r="D28" s="32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="30" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>234</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="69.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73" t="s">
-        <v>442</v>
-      </c>
-      <c r="C30" s="32" t="s">
+    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="32" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31">
-        <f>COUNTA(A2:A29)</f>
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32">
-        <f>COUNTA(B2:B29)</f>
-        <v>25</v>
+        <f>COUNTA(A2:A30)</f>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(B2:B29,"x")</f>
-        <v>18</v>
+        <f>COUNTA(B2:B30)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(B2:B30,"x")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>238</v>
       </c>
-      <c r="B34">
-        <f>B32/B31*100</f>
-        <v>89.285714285714292</v>
+      <c r="B35">
+        <f>B33/B32*100</f>
+        <v>89.65517241379311</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J34">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="be"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J35"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
@@ -8560,13 +8638,14 @@
     <hyperlink ref="G17" r:id="rId24" location=".YYVO9LoxlPY"/>
     <hyperlink ref="H17" r:id="rId25"/>
     <hyperlink ref="H18" r:id="rId26"/>
-    <hyperlink ref="H19" r:id="rId27"/>
-    <hyperlink ref="G20" r:id="rId28"/>
-    <hyperlink ref="H20" r:id="rId29"/>
-    <hyperlink ref="G21" r:id="rId30"/>
-    <hyperlink ref="G19" r:id="rId31"/>
+    <hyperlink ref="H20" r:id="rId27"/>
+    <hyperlink ref="G21" r:id="rId28"/>
+    <hyperlink ref="H21" r:id="rId29"/>
+    <hyperlink ref="G22" r:id="rId30"/>
+    <hyperlink ref="G20" r:id="rId31"/>
     <hyperlink ref="G18" r:id="rId32"/>
-    <hyperlink ref="G24" r:id="rId33"/>
+    <hyperlink ref="G25" r:id="rId33"/>
+    <hyperlink ref="G23" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8628,7 +8707,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8638,7 +8717,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8653,7 +8732,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8663,7 +8742,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -8688,12 +8767,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -8703,12 +8782,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -8718,7 +8797,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -8728,7 +8807,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -8738,7 +8817,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -8748,7 +8827,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -8758,7 +8837,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -8768,7 +8847,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -8788,7 +8867,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9018,7 +9097,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -9049,7 +9128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -9071,7 +9150,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9101,7 +9180,7 @@
     </row>
     <row r="9" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9111,7 +9190,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9126,7 +9205,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="71" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9136,7 +9215,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9146,7 +9225,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9156,17 +9235,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9176,12 +9255,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -9191,7 +9270,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -9201,7 +9280,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="71" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -9211,7 +9290,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -9221,7 +9300,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -9231,7 +9310,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -9241,7 +9320,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -9261,7 +9340,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9491,7 +9570,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="72" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -9524,8 +9603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9545,7 +9624,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9575,7 +9654,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9585,7 +9664,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9621,7 +9700,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="71" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -9636,12 +9715,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9652,7 +9731,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -9665,6 +9744,11 @@
         <v>23</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>25</v>
@@ -9672,7 +9756,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="74" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -9682,7 +9766,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="75" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -9692,7 +9776,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="39" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -9702,7 +9786,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -9722,7 +9806,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="39" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -9732,7 +9816,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -9965,7 +10049,930 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="75" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="76" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>22843</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="39">
+        <v>3724</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="71" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="75" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="38">
+        <v>92149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="39">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="39">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="39">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="39">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -10091,7 +11098,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -10107,7 +11114,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10457,7 +11464,7 @@
   <dimension ref="A1:A95"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10567,7 +11574,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -10582,7 +11589,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
@@ -10607,7 +11614,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>247</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -10617,7 +11624,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -10627,7 +11634,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -10637,7 +11644,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -10657,7 +11664,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -10667,7 +11674,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10897,17 +11904,17 @@
     </row>
     <row r="93" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -10948,7 +11955,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10978,7 +11985,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10988,7 +11995,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11003,7 +12010,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11013,7 +12020,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11023,7 +12030,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11033,17 +12040,17 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11053,12 +12060,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11078,7 +12085,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11108,7 +12115,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11118,7 +12125,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11273,7 +12280,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11368,7 +12375,7 @@
     </row>
     <row r="93" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -11438,7 +12445,7 @@
     </row>
     <row r="9" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A9" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -11448,7 +12455,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -11486,7 +12493,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
@@ -11496,17 +12503,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -11519,12 +12526,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -11534,7 +12541,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -11544,7 +12551,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -11554,7 +12561,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -11564,7 +12571,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -11574,7 +12581,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -11584,7 +12591,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -11594,7 +12601,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -11604,7 +12611,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
@@ -11846,7 +12853,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
@@ -11917,7 +12924,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11952,7 +12959,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11977,12 +12984,12 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -11992,12 +12999,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -12007,7 +13014,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -12017,7 +13024,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -12027,7 +13034,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -12047,7 +13054,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -12057,7 +13064,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -12067,7 +13074,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -12077,7 +13084,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12312,7 +13319,7 @@
     </row>
     <row r="93" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
@@ -12368,7 +13375,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12378,7 +13385,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12398,7 +13405,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12408,7 +13415,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12423,7 +13430,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12433,7 +13440,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12458,12 +13465,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12473,12 +13480,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12488,7 +13495,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12498,7 +13505,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12508,7 +13515,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12518,7 +13525,7 @@
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12528,7 +13535,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12538,7 +13545,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12548,7 +13555,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12558,7 +13565,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12693,7 +13700,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12793,7 +13800,7 @@
     </row>
     <row r="93" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -12827,7 +13834,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12857,7 +13864,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12867,7 +13874,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -12892,7 +13899,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -12917,7 +13924,7 @@
     </row>
     <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
@@ -12932,12 +13939,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
@@ -12947,7 +13954,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
@@ -12957,7 +13964,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -12967,7 +13974,7 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
@@ -12977,7 +13984,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
@@ -12987,7 +13994,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
@@ -12997,7 +14004,7 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
@@ -13007,7 +14014,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
@@ -13017,7 +14024,7 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
@@ -13252,7 +14259,7 @@
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="19" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="14" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -36,6 +36,8 @@
     <sheet name="RXNO" sheetId="22" r:id="rId22"/>
     <sheet name="MOP" sheetId="23" r:id="rId23"/>
     <sheet name="BAO" sheetId="25" r:id="rId24"/>
+    <sheet name="metadata4ing" sheetId="38" r:id="rId25"/>
+    <sheet name="OM" sheetId="39" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="518">
   <si>
     <t>Ontology</t>
   </si>
@@ -1577,6 +1579,93 @@
   </si>
   <si>
     <t>related:narrower</t>
+  </si>
+  <si>
+    <t>https://git.rwth-aachen.de/nfdi4ing/metadata4ing/metadata4ing/-/raw/develop/metadata4ing.ttl</t>
+  </si>
+  <si>
+    <t>NFDI4Ing, Ontology is still actively maintained</t>
+  </si>
+  <si>
+    <t>https://nfdi4ing.pages.rwth-aachen.de/metadata4ing/metadata4ing/index.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Benjamin Farnbacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cord Wiljes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dorothea Iglezakis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Džulia Terzijska</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Giacomo Lanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johanna Hickmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johannes Theissen-Lipp</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johannes Munke</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jürgen Windeck</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marc Fuhrmans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martin Thomas Horsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nils Hoppe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sophia Leimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stephan Hachinger</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Susanne Arndt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>metadata4Ing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metadata4Ing Workgroup: Ashish Karmacharya, Benjamin Farnbacher, Cord Wiljes, Dorothea Iglezakis, Džulia Terzijska, Giacomo Lanza, Johanna Hickmann, Johannes Theissen-Lipp, Johannes Munke, Jürgen Windeck, Marc Fuhrmans, Martin Thomas Horsch, Nils Hoppe, Sophia Leimer, Stephan Hachinger, Susanne Arndt, </t>
+  </si>
+  <si>
+    <t>Metadata4Ing: An ontology for describing the generation of research data within a scientific activity.</t>
+  </si>
+  <si>
+    <t>https://nfdi4ing.de/special-interest-groups-sig/metadata-ontologies/</t>
+  </si>
+  <si>
+    <t>https://git.rwth-aachen.de/nfdi4ing/metadata4ing/metadata4ing/</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/record/5957104 ; https://tuprints.ulb.tu-darmstadt.de/20946/1/Vortrag%20NFDI4Ing%20%282%29.pdf</t>
+  </si>
+  <si>
+    <t>ttl, rdf/xml, json-LD, nt</t>
+  </si>
+  <si>
+    <t>207 ms</t>
+  </si>
+  <si>
+    <t>bibo,biro,dcat,dcterms,emmo,foaf,m4i,obo,owl,pims-ii,prov,qudt,rdf,rdfs,schema,si,skos,ssn,vann,xml,xsd</t>
+  </si>
+  <si>
+    <t>skos:prefLabel, rdfs:comment</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +2027,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1989,9 +2078,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2097,12 +2183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2735,89 +2815,89 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>49216</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>12270</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>6846</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
+      <c r="A84" s="38"/>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
+      <c r="A86" s="38"/>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
+      <c r="A88" s="38"/>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
+      <c r="A90" s="38"/>
     </row>
     <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35"/>
+      <c r="A93" s="34"/>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
@@ -3012,7 +3092,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3032,7 +3112,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3272,97 +3352,97 @@
       </c>
     </row>
     <row r="75" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39">
+      <c r="A77" s="38">
         <v>2928713</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39">
+      <c r="A79" s="38">
         <v>317346</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39">
+      <c r="A81" s="38">
         <v>176920</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39">
+      <c r="A83" s="38">
         <v>176873</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39">
+      <c r="A85" s="38">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39">
+      <c r="A87" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="39">
+      <c r="A89" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39">
+      <c r="A91" s="38">
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="34" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3738,97 +3818,97 @@
       </c>
     </row>
     <row r="75" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="38">
+      <c r="A77" s="37">
         <v>49216</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39">
+      <c r="A79" s="38">
         <v>12270</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39">
+      <c r="A81" s="38">
         <v>6846</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39">
+      <c r="A85" s="38">
         <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39">
+      <c r="A87" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="39">
+      <c r="A89" s="38">
         <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39">
+      <c r="A91" s="38">
         <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="34" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3903,7 +3983,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4208,97 +4288,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>1786</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>1110</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="37" t="s">
         <v>443</v>
       </c>
     </row>
@@ -4390,7 +4470,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4435,7 +4515,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4455,7 +4535,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="59" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4695,97 +4775,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>3609</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>730</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>552</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="37" t="s">
         <v>450</v>
       </c>
     </row>
@@ -4868,7 +4948,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="62" t="s">
         <v>366</v>
       </c>
     </row>
@@ -4913,7 +4993,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="59" t="s">
         <v>120</v>
       </c>
       <c r="F19" s="14"/>
@@ -5174,97 +5254,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>2982</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>695</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="37" t="s">
         <v>376</v>
       </c>
     </row>
@@ -5348,7 +5428,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5653,97 +5733,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>10812</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>7252</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>1712</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>1082</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>580</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>897</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="37" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5864,13 +5944,13 @@
       <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="71"/>
+      <c r="D16" s="70"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>386</v>
       </c>
-      <c r="C17" s="71"/>
+      <c r="C17" s="70"/>
     </row>
     <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
@@ -5898,7 +5978,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="61" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5933,7 +6013,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6138,97 +6218,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="38" t="s">
         <v>389</v>
       </c>
     </row>
@@ -6261,7 +6341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -6312,7 +6392,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="70" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6377,7 +6457,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6617,97 +6697,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>175485</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>39135</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>15623</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>14989</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39" t="s">
+      <c r="A93" s="38" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6856,7 +6936,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6911,7 +6991,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7096,97 +7176,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>5048</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>1577</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="71" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7334,7 +7414,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7389,7 +7469,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>458</v>
       </c>
     </row>
@@ -7574,97 +7654,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>735</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>454</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="71" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7694,8 +7774,8 @@
   <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7716,7 +7796,7 @@
       <c r="A1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="18" t="s">
@@ -7745,13 +7825,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -7760,7 +7840,7 @@
       <c r="E2" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -7769,27 +7849,27 @@
       <c r="H2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F3" s="16" t="s">
@@ -7801,27 +7881,27 @@
       <c r="H3" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F4" s="16" t="s">
@@ -7833,27 +7913,27 @@
       <c r="H4" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="16" t="s">
@@ -7865,21 +7945,21 @@
       <c r="H5" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="21" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="16" t="s">
@@ -7888,30 +7968,30 @@
       <c r="E6" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="16" t="s">
@@ -7920,7 +8000,7 @@
       <c r="E7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -7929,27 +8009,27 @@
       <c r="H7" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="21" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -7958,30 +8038,30 @@
       <c r="G8" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="16" t="s">
@@ -7990,62 +8070,62 @@
       <c r="G9" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="21" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="16" t="s">
         <v>92</v>
       </c>
@@ -8055,27 +8135,27 @@
       <c r="H11" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="21" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="B12" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="21"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="16" t="s">
         <v>92</v>
       </c>
@@ -8088,54 +8168,54 @@
       <c r="I12" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E13" s="21"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E14" s="21"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="16" t="s">
         <v>168</v>
       </c>
@@ -8145,83 +8225,83 @@
       <c r="H14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="22" t="s">
         <v>176</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="25" t="s">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>182</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="21"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="16" t="s">
         <v>6</v>
       </c>
@@ -8234,24 +8314,24 @@
       <c r="I17" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="16" t="s">
         <v>92</v>
       </c>
@@ -8264,42 +8344,44 @@
       <c r="I18" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="33" t="s">
         <v>465</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>466</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="22"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="16" t="s">
         <v>6</v>
       </c>
@@ -8317,56 +8399,56 @@
       </c>
     </row>
     <row r="21" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="30" t="s">
+      <c r="H21" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="H22" s="31"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="16" t="s">
         <v>206</v>
       </c>
@@ -8375,21 +8457,21 @@
       </c>
     </row>
     <row r="23" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="71" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="70" t="s">
         <v>210</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -8403,18 +8485,20 @@
       </c>
     </row>
     <row r="24" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="16" t="s">
         <v>216</v>
       </c>
@@ -8429,23 +8513,23 @@
       </c>
     </row>
     <row r="25" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E25" s="21"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="71" t="s">
+      <c r="G25" s="70" t="s">
         <v>222</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -8458,11 +8542,11 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:47" s="31" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="64" t="s">
         <v>93</v>
       </c>
       <c r="C26" t="s">
@@ -8515,45 +8599,45 @@
       <c r="AT26"/>
       <c r="AU26"/>
     </row>
-    <row r="27" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:47" s="31" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="28" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:47" s="31" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="31" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="29" spans="1:47" s="32" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59" t="s">
+    <row r="29" spans="1:47" s="31" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="31" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8566,10 +8650,10 @@
       </c>
     </row>
     <row r="31" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="31" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8588,7 +8672,7 @@
       </c>
       <c r="B33">
         <f>COUNTA(B2:B30)</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8597,7 +8681,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(B2:B30,"x")</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8606,7 +8690,7 @@
       </c>
       <c r="B35">
         <f>B33/B32*100</f>
-        <v>89.65517241379311</v>
+        <v>96.551724137931032</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8855,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>427</v>
       </c>
     </row>
@@ -8806,7 +8890,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8826,7 +8910,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9006,97 +9090,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>2588</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>1201</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="71" t="s">
         <v>432</v>
       </c>
     </row>
@@ -9204,7 +9288,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="70" t="s">
         <v>434</v>
       </c>
     </row>
@@ -9244,7 +9328,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>447</v>
       </c>
     </row>
@@ -9279,7 +9363,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="70" t="s">
         <v>430</v>
       </c>
     </row>
@@ -9299,7 +9383,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>428</v>
       </c>
     </row>
@@ -9479,97 +9563,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>34927</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>5179</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>3550</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>3473</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="71" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9679,7 +9763,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="70" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9689,7 +9773,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>192</v>
       </c>
     </row>
@@ -9699,7 +9783,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>455</v>
       </c>
     </row>
@@ -9709,7 +9793,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>191</v>
       </c>
     </row>
@@ -9719,7 +9803,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>452</v>
       </c>
     </row>
@@ -9755,7 +9839,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="73" t="s">
         <v>476</v>
       </c>
     </row>
@@ -9765,7 +9849,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
         <v>456</v>
       </c>
     </row>
@@ -9775,7 +9859,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>457</v>
       </c>
     </row>
@@ -9785,7 +9869,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>463</v>
       </c>
     </row>
@@ -9795,7 +9879,7 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9805,7 +9889,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="38" t="s">
         <v>464</v>
       </c>
     </row>
@@ -9815,7 +9899,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="38" t="s">
         <v>487</v>
       </c>
     </row>
@@ -9957,93 +10041,93 @@
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>8342</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>1730</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>1068</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>1019</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10138,7 +10222,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="70" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10148,7 +10232,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>468</v>
       </c>
     </row>
@@ -10158,7 +10242,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>455</v>
       </c>
     </row>
@@ -10168,7 +10252,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>191</v>
       </c>
     </row>
@@ -10178,7 +10262,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>452</v>
       </c>
     </row>
@@ -10214,7 +10298,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="73" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10224,7 +10308,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10234,7 +10318,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10244,7 +10328,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>463</v>
       </c>
     </row>
@@ -10254,7 +10338,7 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10264,7 +10348,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="38" t="s">
         <v>472</v>
       </c>
     </row>
@@ -10274,7 +10358,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="38" t="s">
         <v>487</v>
       </c>
     </row>
@@ -10416,93 +10500,93 @@
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>22843</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>3819</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>3724</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>3686</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>29</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10521,8 +10605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10597,7 +10681,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="70" t="s">
         <v>473</v>
       </c>
     </row>
@@ -10607,7 +10691,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>479</v>
       </c>
     </row>
@@ -10617,7 +10701,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="70" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10627,7 +10711,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="70" t="s">
         <v>475</v>
       </c>
     </row>
@@ -10673,7 +10757,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="73" t="s">
         <v>476</v>
       </c>
     </row>
@@ -10683,7 +10767,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75" t="s">
+      <c r="A33" s="74" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10693,7 +10777,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="38" t="s">
         <v>486</v>
       </c>
     </row>
@@ -10703,7 +10787,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10713,7 +10797,7 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="38" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10723,7 +10807,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="38" t="s">
         <v>484</v>
       </c>
     </row>
@@ -10733,7 +10817,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="38" t="s">
         <v>487</v>
       </c>
     </row>
@@ -10875,93 +10959,93 @@
     </row>
     <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>92149</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>10052</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>7838</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>7512</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -10978,6 +11062,1036 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" t="s">
+        <v>500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>501</v>
+      </c>
+      <c r="L9" t="s">
+        <v>502</v>
+      </c>
+      <c r="M9" t="s">
+        <v>503</v>
+      </c>
+      <c r="N9" t="s">
+        <v>504</v>
+      </c>
+      <c r="O9" t="s">
+        <v>505</v>
+      </c>
+      <c r="P9" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="37">
+        <v>92149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="38">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D9" t="s">
+        <v>494</v>
+      </c>
+      <c r="E9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F9" t="s">
+        <v>496</v>
+      </c>
+      <c r="G9" t="s">
+        <v>497</v>
+      </c>
+      <c r="H9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I9" t="s">
+        <v>499</v>
+      </c>
+      <c r="J9" t="s">
+        <v>500</v>
+      </c>
+      <c r="K9" t="s">
+        <v>501</v>
+      </c>
+      <c r="L9" t="s">
+        <v>502</v>
+      </c>
+      <c r="M9" t="s">
+        <v>503</v>
+      </c>
+      <c r="N9" t="s">
+        <v>504</v>
+      </c>
+      <c r="O9" t="s">
+        <v>505</v>
+      </c>
+      <c r="P9" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:17" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="70" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A75" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="37">
+        <v>92149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A77" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38">
+        <v>10052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A79" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="38">
+        <v>7838</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A81" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="38">
+        <v>7512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A83" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A85" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="38">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A89" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11338,97 +12452,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>7382</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>2527</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>1055</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>935</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>32</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="34" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11513,7 +12627,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>240</v>
       </c>
     </row>
@@ -11813,107 +12927,107 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>575</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="40" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="41" t="s">
+      <c r="A95" s="40" t="s">
         <v>253</v>
       </c>
     </row>
@@ -11964,7 +13078,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>152</v>
       </c>
     </row>
@@ -12284,92 +13398,92 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>24686</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>5299</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>3347</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>2876</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -12404,12 +13518,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12419,17 +13533,17 @@
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>5</v>
       </c>
     </row>
@@ -12439,22 +13553,22 @@
       </c>
     </row>
     <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="44" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>271</v>
       </c>
     </row>
@@ -12462,47 +13576,47 @@
       <c r="A12" s="16"/>
     </row>
     <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="47" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="70" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="47" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>273</v>
       </c>
     </row>
@@ -12520,12 +13634,12 @@
       <c r="A24" s="16"/>
     </row>
     <row r="25" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>262</v>
       </c>
     </row>
@@ -12535,7 +13649,7 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="50" t="s">
         <v>23</v>
       </c>
     </row>
@@ -12545,7 +13659,7 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>25</v>
       </c>
     </row>
@@ -12555,7 +13669,7 @@
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12565,7 +13679,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12575,7 +13689,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12585,17 +13699,17 @@
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="21" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="50" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12605,7 +13719,7 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="50" t="s">
         <v>34</v>
       </c>
     </row>
@@ -12618,12 +13732,12 @@
       <c r="A44" s="16"/>
     </row>
     <row r="45" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="51" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -12633,7 +13747,7 @@
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A48" s="54" t="s">
+      <c r="A48" s="53" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12643,7 +13757,7 @@
       </c>
     </row>
     <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="53" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12653,7 +13767,7 @@
       </c>
     </row>
     <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="53" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12663,7 +13777,7 @@
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A54" s="54" t="s">
+      <c r="A54" s="53" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12673,7 +13787,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A56" s="54" t="s">
+      <c r="A56" s="53" t="s">
         <v>45</v>
       </c>
     </row>
@@ -12683,7 +13797,7 @@
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="53" t="s">
         <v>47</v>
       </c>
     </row>
@@ -12693,7 +13807,7 @@
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="53" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12703,7 +13817,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="53" t="s">
         <v>49</v>
       </c>
     </row>
@@ -12713,7 +13827,7 @@
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="53" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12723,7 +13837,7 @@
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="53" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12733,7 +13847,7 @@
       </c>
     </row>
     <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="53" t="s">
         <v>52</v>
       </c>
     </row>
@@ -12743,7 +13857,7 @@
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="53" t="s">
         <v>53</v>
       </c>
     </row>
@@ -12759,22 +13873,22 @@
       <c r="A73" s="16"/>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="55" t="s">
+      <c r="A74" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
+      <c r="A76" s="21">
         <v>2646</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="55" t="s">
         <v>57</v>
       </c>
     </row>
@@ -12784,7 +13898,7 @@
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="55" t="s">
         <v>58</v>
       </c>
     </row>
@@ -12794,7 +13908,7 @@
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A81" s="56" t="s">
+      <c r="A81" s="55" t="s">
         <v>59</v>
       </c>
     </row>
@@ -12804,7 +13918,7 @@
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A83" s="56" t="s">
+      <c r="A83" s="55" t="s">
         <v>61</v>
       </c>
     </row>
@@ -12814,7 +13928,7 @@
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A85" s="56" t="s">
+      <c r="A85" s="55" t="s">
         <v>62</v>
       </c>
     </row>
@@ -12824,7 +13938,7 @@
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A87" s="56" t="s">
+      <c r="A87" s="55" t="s">
         <v>63</v>
       </c>
     </row>
@@ -12834,7 +13948,7 @@
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="55" t="s">
         <v>64</v>
       </c>
     </row>
@@ -12847,7 +13961,7 @@
       <c r="A91" s="16"/>
     </row>
     <row r="92" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A92" s="57" t="s">
+      <c r="A92" s="56" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13228,97 +14342,97 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>7555</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>1591</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>1070</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>850</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="37" t="s">
         <v>292</v>
       </c>
     </row>
@@ -13449,7 +14563,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="61" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13709,92 +14823,92 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="38">
+      <c r="A76" s="37">
         <v>4811</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39">
+      <c r="A78" s="38">
         <v>3067</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39">
+      <c r="A80" s="38">
         <v>746</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="37" t="s">
+      <c r="A81" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39">
+      <c r="A82" s="38">
         <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="37" t="s">
+      <c r="A83" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39">
+      <c r="A84" s="38">
         <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="37" t="s">
+      <c r="A85" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39">
+      <c r="A86" s="38">
         <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39">
+      <c r="A88" s="38">
         <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="39">
+      <c r="A90" s="38">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -14168,97 +15282,97 @@
       </c>
     </row>
     <row r="75" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="36" t="s">
+      <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39">
+      <c r="A77" s="38">
         <v>27840</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39">
+      <c r="A79" s="38">
         <v>3479</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39">
+      <c r="A81" s="38">
         <v>3162</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A82" s="37" t="s">
+      <c r="A82" s="36" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39">
+      <c r="A83" s="38">
         <v>3101</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A84" s="37" t="s">
+      <c r="A84" s="36" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39">
+      <c r="A85" s="38">
         <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="36" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39">
+      <c r="A87" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A88" s="37" t="s">
+      <c r="A88" s="36" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="39">
+      <c r="A89" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A90" s="37" t="s">
+      <c r="A90" s="36" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39">
+      <c r="A91" s="38">
         <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="34" t="s">
         <v>303</v>
       </c>
     </row>

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="14" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="519">
   <si>
     <t>Ontology</t>
   </si>
@@ -1666,6 +1666,9 @@
   </si>
   <si>
     <t>skos:prefLabel, rdfs:comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aiming for the definition of processes, Metadata4Ing defines classes and properties or reuses such classes and properties from other ontologies to describe research processes and research data management in NFDI4Ing. </t>
   </si>
 </sst>
 </file>
@@ -7775,7 +7778,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8642,8 +8645,11 @@
       </c>
     </row>
     <row r="30" spans="1:47" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="33" t="s">
         <v>234</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>109</v>
@@ -8672,7 +8678,7 @@
       </c>
       <c r="B33">
         <f>COUNTA(B2:B30)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8681,7 +8687,7 @@
       </c>
       <c r="B34">
         <f>COUNTIF(B2:B30,"x")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -8690,7 +8696,7 @@
       </c>
       <c r="B35">
         <f>B33/B32*100</f>
-        <v>96.551724137931032</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -10605,8 +10611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11067,10 +11073,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A75" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11346,7 +11352,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>488</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11376,7 +11382,7 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11386,7 +11392,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11396,7 +11402,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11406,7 +11412,7 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11426,7 +11432,7 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11436,7 +11442,7 @@
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11456,7 +11462,7 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11482,7 +11488,7 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" s="37">
-        <v>92149</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11492,7 +11498,7 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
-        <v>10052</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11502,7 +11508,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
-        <v>7838</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11512,7 +11518,7 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
-        <v>7512</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11522,7 +11528,7 @@
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
-        <v>170</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11532,7 +11538,7 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11542,7 +11548,7 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.3">
@@ -11552,7 +11558,7 @@
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11563,12 +11569,7 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -11584,8 +11585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="529">
   <si>
     <t>Ontology</t>
   </si>
@@ -11623,8 +11623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11833,7 +11833,9 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="74"/>
+      <c r="A33" s="74" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
@@ -11841,7 +11843,9 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="38"/>
+      <c r="A35" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="BAO" sheetId="25" r:id="rId24"/>
     <sheet name="metadata4ing" sheetId="38" r:id="rId25"/>
     <sheet name="OM" sheetId="39" r:id="rId26"/>
+    <sheet name="OBI" sheetId="40" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">BFO!$A$1:$A$93</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="540">
   <si>
     <t>Ontology</t>
   </si>
@@ -1699,6 +1700,39 @@
   </si>
   <si>
     <t>A very good resource on any scientific unit to be described. It models concepts and relations important to scientific research. It has a strong focus on units, quantities, measurements, and dimensions.</t>
+  </si>
+  <si>
+    <t>Ontology for Biomedical Investigations</t>
+  </si>
+  <si>
+    <t>https://github.com/obi-ontology/obi</t>
+  </si>
+  <si>
+    <t>https://obi-ontology.org/docs/</t>
+  </si>
+  <si>
+    <t>https://obi-ontology.org/</t>
+  </si>
+  <si>
+    <t>Consortium, Ontology is still actively maintained</t>
+  </si>
+  <si>
+    <t>OBI Consortium</t>
+  </si>
+  <si>
+    <t>doi: 10.1371/journal.pone.0154556; https://en.wikipedia.org/wiki/Ontology_for_Biomedical_Investigations</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/obi.owl</t>
+  </si>
+  <si>
+    <t>non inferred, available as core version</t>
+  </si>
+  <si>
+    <t>dc,foaf,obo,oboInOwl,owl,protege,rdf,rdfs,terms,xml</t>
+  </si>
+  <si>
+    <t>Quite well formed ontology for representing biomedical investigations, including study designs, the collection and preparation of the targets of investigation, assays, instrumentation and reagents used, as well as the data generated and the types of analysis performed on the data to reach conclusions, and their documentation.</t>
   </si>
 </sst>
 </file>
@@ -3029,7 +3063,7 @@
     <hyperlink ref="A126" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3965,7 +3999,7 @@
     <hyperlink ref="A23" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4452,7 +4486,7 @@
     <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5893,7 +5927,7 @@
     <hyperlink ref="A19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6374,7 +6408,7 @@
     <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -6853,7 +6887,7 @@
     <hyperlink ref="A9" r:id="rId2" tooltip="Home" display="https://www.psidev.info/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7814,9 +7848,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1"/>
@@ -8697,6 +8731,9 @@
       <c r="A31" s="72" t="s">
         <v>440</v>
       </c>
+      <c r="B31" s="64" t="s">
+        <v>93</v>
+      </c>
       <c r="C31" s="31" t="s">
         <v>102</v>
       </c>
@@ -8724,8 +8761,8 @@
         <v>237</v>
       </c>
       <c r="B34">
-        <f>COUNTIF(B2:B30,"x")</f>
-        <v>22</v>
+        <f>COUNTIF(B2:B31,"x")</f>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="69.75" customHeight="1">
@@ -10649,7 +10686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -11113,7 +11150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -11623,7 +11660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -12118,6 +12155,465 @@
     <row r="93" spans="1:1">
       <c r="A93" t="s">
         <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="21">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21">
+      <c r="A8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="21">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A13" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="21">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="70" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="21">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="70" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="21">
+      <c r="A20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21">
+      <c r="A22" s="11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="74" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="38" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="38" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A45" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="21">
+      <c r="A46" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="21">
+      <c r="A48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="21">
+      <c r="A50" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="21">
+      <c r="A52" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="21">
+      <c r="A54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="21">
+      <c r="A56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="21">
+      <c r="A58" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="21">
+      <c r="A60" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="21">
+      <c r="A62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="21">
+      <c r="A64" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21">
+      <c r="A66" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="21">
+      <c r="A68" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="21">
+      <c r="A70" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A74" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="21">
+      <c r="A75" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="37">
+        <v>51910</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="21">
+      <c r="A77" s="36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="38">
+        <v>10122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="21">
+      <c r="A79" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="38">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="21">
+      <c r="A81" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="38">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="21">
+      <c r="A83" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="38">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="21">
+      <c r="A85" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="21">
+      <c r="A87" s="36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="38">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="21">
+      <c r="A89" s="36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="38">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+      <c r="A92" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -14490,7 +14986,7 @@
     <hyperlink ref="A17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -15417,23 +15913,23 @@
     <hyperlink ref="A15" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15569,6 +16065,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -15580,14 +16084,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="541">
   <si>
     <t>Ontology</t>
   </si>
@@ -1733,6 +1733,9 @@
   </si>
   <si>
     <t>Quite well formed ontology for representing biomedical investigations, including study designs, the collection and preparation of the targets of investigation, assays, instrumentation and reagents used, as well as the data generated and the types of analysis performed on the data to reach conclusions, and their documentation.</t>
+  </si>
+  <si>
+    <t>Stuart Chalk</t>
   </si>
 </sst>
 </file>
@@ -7848,7 +7851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
@@ -14035,8 +14038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -14084,9 +14087,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="158.4">
+    <row r="9" spans="1:1">
       <c r="A9" s="39" t="s">
-        <v>270</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14502,8 +14505,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1" display="doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
-    <hyperlink ref="A23" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15927,12 +15929,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -16064,6 +16060,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
@@ -16073,22 +16075,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16104,4 +16090,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="538">
   <si>
     <t>Ontology</t>
   </si>
@@ -882,9 +882,6 @@
   </si>
   <si>
     <t>https://bioportal.bioontology.org/ontologies/AFO/?p=mappings</t>
-  </si>
-  <si>
-    <t>contained BFO</t>
   </si>
   <si>
     <t>Reasoning mit HermiT durchgeführt, zahl hinter verzeichnis sind die Axiome der jeweiligen Ontologie
@@ -1154,9 +1151,6 @@
     <t>label via class IRI; definition via rdfs:comment</t>
   </si>
   <si>
-    <t>contains/created own Top Level Ontology</t>
-  </si>
-  <si>
     <t>Looks like not maintained anymore since 2009. Modular setup of subontologies in separate files and linkage to ontology files via C:/OntoCAPE/ as base instead of an actual URI makes it difficult to reason and to reuse.
 While it contains good ideas on process modeling (special focus on ASPEN), it does not fit to current standards (Top Level, IRIs pointing to local files, mutliple ontology module files instead of one large file containing the whole ontology...)
 Additionally, reasoning gets very complicated because of the modular setup of the sub-ontologies. [AB] was not yet able to run a reasoner (tried Fact++ and HermiT) without error. Even reasoning just the heat exchanger module produced non resolvable reasoning errors.</t>
@@ -1171,9 +1165,6 @@
     <t>https://www.vimmp.eu/</t>
   </si>
   <si>
-    <t>https://purl.vimmp.eu/semantics/osmo/osmo.ttl</t>
-  </si>
-  <si>
     <t>https://gitlab.com/vimmp-semantics/vimmp-ontologies</t>
   </si>
   <si>
@@ -1210,9 +1201,6 @@
     <t>rdfs:label, definition : OBO/IAO_0000115</t>
   </si>
   <si>
-    <t>OBO?</t>
-  </si>
-  <si>
     <t>Tung Nguyen, Jonathan Karr, Rahuman Sheriff</t>
   </si>
   <si>
@@ -1736,6 +1724,9 @@
   </si>
   <si>
     <t>Stuart Chalk</t>
+  </si>
+  <si>
+    <t>http://www.molmod.info/semantics/osmo.ttl</t>
   </si>
 </sst>
 </file>
@@ -1785,18 +1776,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1809,11 +1803,13 @@
       <sz val="22"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2556,10 +2552,10 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -2602,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2752,7 +2748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2892,7 +2888,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -2969,7 +2965,7 @@
     <row r="90" spans="1:1">
       <c r="A90" s="38"/>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -3074,14 +3070,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -3106,7 +3102,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -3116,7 +3112,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -3126,7 +3122,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -3136,10 +3132,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3151,7 +3147,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -3161,7 +3157,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -3171,7 +3167,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -3181,20 +3177,20 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="43.2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="45">
       <c r="A23" s="39" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3206,7 +3202,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3216,7 +3212,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3226,7 +3222,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3236,7 +3232,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3246,7 +3242,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3256,7 +3252,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3266,7 +3262,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3276,7 +3272,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3286,10 +3282,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3351,7 +3347,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -3361,7 +3357,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21">
@@ -3421,7 +3417,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -3429,7 +3425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.4" thickBot="1">
+    <row r="75" spans="1:1" ht="29.25" thickBot="1">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3514,14 +3510,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.4" thickBot="1">
+    <row r="93" spans="1:1" ht="29.25" thickBot="1">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -3540,14 +3536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -3572,7 +3568,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -3590,9 +3586,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -3602,10 +3598,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3617,7 +3613,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -3627,7 +3623,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -3637,7 +3633,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -3647,20 +3643,20 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3672,7 +3668,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3682,7 +3678,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3692,7 +3688,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3702,7 +3698,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3712,7 +3708,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3722,7 +3718,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3732,7 +3728,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3742,7 +3738,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3752,10 +3748,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3887,7 +3883,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -3895,7 +3891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8">
+    <row r="75" spans="1:1" ht="28.5">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3980,14 +3976,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="28.5">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -4010,14 +4006,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -4032,7 +4028,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4060,9 +4056,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="72">
+    <row r="9" spans="1:1" ht="75">
       <c r="A9" s="39" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -4072,10 +4068,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4087,7 +4083,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -4097,7 +4093,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>352</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -4117,20 +4113,20 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4162,7 +4158,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -4172,7 +4168,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4192,7 +4188,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4202,7 +4198,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4212,7 +4208,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4222,10 +4218,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4357,7 +4353,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -4365,7 +4361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4450,19 +4446,19 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4485,11 +4481,10 @@
     <hyperlink ref="A21" r:id="rId1"/>
     <hyperlink ref="A15" r:id="rId2"/>
     <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A17" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -4497,14 +4492,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -4519,7 +4514,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4562,7 +4557,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4604,12 +4599,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4617,7 +4612,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4629,7 +4624,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4659,7 +4654,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4669,7 +4664,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -4679,7 +4674,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4699,7 +4694,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4709,10 +4704,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4844,7 +4839,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>365</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -4852,7 +4847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4937,14 +4932,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4975,14 +4970,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -5027,7 +5022,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="62" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -5037,10 +5032,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5047,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -5062,7 +5057,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21">
@@ -5083,20 +5078,20 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5128,7 +5123,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5138,7 +5133,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5148,7 +5143,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5158,7 +5153,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5178,7 +5173,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5188,10 +5183,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5323,7 +5318,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -5331,7 +5326,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5416,14 +5411,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5455,14 +5450,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -5477,7 +5472,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -5505,9 +5500,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="129.6">
+    <row r="9" spans="1:1" ht="150">
       <c r="A9" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -5517,10 +5512,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5532,7 +5527,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -5542,7 +5537,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -5552,7 +5547,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -5562,20 +5557,20 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5597,7 +5592,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -5607,7 +5602,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -5617,7 +5612,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5637,7 +5632,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5647,7 +5642,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5657,7 +5652,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5667,10 +5662,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5802,7 +5797,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -5810,7 +5805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5895,14 +5890,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="37" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5938,14 +5933,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
@@ -5960,7 +5955,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -5970,7 +5965,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -5980,7 +5975,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -5988,7 +5983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6003,7 +5998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.4" thickBot="1">
+    <row r="13" spans="1:4" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6026,7 +6021,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C17" s="70"/>
     </row>
@@ -6052,7 +6047,7 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6060,7 +6055,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.4" thickBot="1">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6082,7 +6077,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6092,7 +6087,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="70" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6112,7 +6107,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -6132,7 +6127,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6152,10 +6147,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6287,7 +6282,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -6295,7 +6290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6380,14 +6375,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -6419,14 +6414,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6451,7 +6446,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -6461,7 +6456,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -6471,7 +6466,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -6484,7 +6479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6496,7 +6491,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -6506,7 +6501,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6516,7 +6511,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -6526,20 +6521,20 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6571,7 +6566,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6601,7 +6596,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6611,7 +6606,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6621,7 +6616,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -6631,10 +6626,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6766,7 +6761,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -6774,7 +6769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6859,14 +6854,14 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -6898,14 +6893,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6920,7 +6915,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -6950,7 +6945,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -6960,10 +6955,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6975,7 +6970,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -6985,7 +6980,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6995,7 +6990,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -7010,15 +7005,15 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7030,7 +7025,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7040,7 +7035,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7050,7 +7045,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7070,7 +7065,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7080,7 +7075,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7090,7 +7085,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7110,10 +7105,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7253,7 +7248,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7338,14 +7333,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="45">
       <c r="A93" s="71" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7376,14 +7371,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -7398,7 +7393,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -7428,7 +7423,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -7438,10 +7433,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7453,7 +7448,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -7463,7 +7458,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -7488,7 +7483,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7496,7 +7491,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7508,7 +7503,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7518,7 +7513,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7548,7 +7543,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7558,7 +7553,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7568,7 +7563,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7591,7 +7586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7731,7 +7726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7816,14 +7811,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="71" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7856,18 +7851,18 @@
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1">
@@ -8428,7 +8423,7 @@
     </row>
     <row r="19" spans="1:47" ht="69.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>93</v>
@@ -8437,7 +8432,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="16"/>
@@ -8732,7 +8727,7 @@
     </row>
     <row r="31" spans="1:47" ht="69.75" customHeight="1">
       <c r="A31" s="72" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>93</v>
@@ -8823,14 +8818,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -8875,7 +8870,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -8885,10 +8880,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -8900,7 +8895,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -8910,7 +8905,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -8935,15 +8930,15 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -8965,7 +8960,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -8975,7 +8970,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="70" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8985,7 +8980,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -8995,7 +8990,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9005,7 +9000,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9015,7 +9010,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9035,10 +9030,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9173,7 +9168,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9258,14 +9253,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="71" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9296,14 +9291,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -9318,7 +9313,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9346,9 +9341,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="43.2">
+    <row r="9" spans="1:1" ht="45">
       <c r="A9" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9358,10 +9353,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9373,7 +9368,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -9383,7 +9378,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -9393,7 +9388,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9403,20 +9398,20 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9438,7 +9433,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -9448,7 +9443,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="70" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9458,7 +9453,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9468,7 +9463,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9478,7 +9473,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9488,7 +9483,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9508,10 +9503,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9646,7 +9641,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9731,14 +9726,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" ht="30">
       <c r="A93" s="71" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9771,16 +9766,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9792,7 +9787,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9822,7 +9817,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9832,11 +9827,11 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9868,7 +9863,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9883,16 +9878,16 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9924,7 +9919,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9934,7 +9929,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9944,7 +9939,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9954,7 +9949,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="75" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9974,7 +9969,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -9984,11 +9979,11 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10120,11 +10115,11 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10209,15 +10204,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -10230,16 +10225,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10251,7 +10246,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -10271,7 +10266,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -10281,7 +10276,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10291,11 +10286,11 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10317,7 +10312,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10327,7 +10322,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -10342,16 +10337,16 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10383,7 +10378,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10393,7 +10388,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10403,7 +10398,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10413,7 +10408,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="75" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10433,7 +10428,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10443,11 +10438,11 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10579,11 +10574,11 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10668,15 +10663,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -10689,16 +10684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10738,9 +10733,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10750,11 +10745,11 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10766,7 +10761,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -10776,7 +10771,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10796,21 +10791,21 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10822,7 +10817,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -10832,7 +10827,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -10842,7 +10837,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10852,7 +10847,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10862,7 +10857,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10892,7 +10887,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10902,11 +10897,11 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10918,7 +10913,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -11041,8 +11036,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11127,20 +11122,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -11153,16 +11148,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.4" thickBot="1">
+    <row r="1" spans="1:17" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11174,7 +11169,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11194,7 +11189,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21">
@@ -11202,57 +11197,57 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8">
+    <row r="9" spans="1:17" ht="45">
       <c r="A9" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" t="s">
         <v>491</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>492</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>493</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>494</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>495</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>496</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>497</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>498</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>499</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>500</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>501</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>502</v>
-      </c>
-      <c r="N9" t="s">
-        <v>503</v>
-      </c>
-      <c r="O9" t="s">
-        <v>504</v>
-      </c>
-      <c r="P9" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11262,11 +11257,11 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.4" thickBot="1">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11278,7 +11273,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="70" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11288,7 +11283,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11298,7 +11293,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11308,21 +11303,21 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11334,7 +11329,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11354,7 +11349,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11364,7 +11359,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11374,7 +11369,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11404,7 +11399,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11414,11 +11409,11 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11553,8 +11548,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11639,15 +11634,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -11663,16 +11658,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.4" thickBot="1">
+    <row r="1" spans="1:17" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11684,7 +11679,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11714,55 +11709,55 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="76" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="s">
+        <v>488</v>
+      </c>
+      <c r="D9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F9" t="s">
         <v>491</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>492</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>493</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
         <v>494</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>495</v>
       </c>
-      <c r="G9" t="s">
+      <c r="K9" t="s">
         <v>496</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>497</v>
       </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>498</v>
       </c>
-      <c r="J9" t="s">
+      <c r="N9" t="s">
         <v>499</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>500</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>501</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>502</v>
-      </c>
-      <c r="N9" t="s">
-        <v>503</v>
-      </c>
-      <c r="O9" t="s">
-        <v>504</v>
-      </c>
-      <c r="P9" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11772,11 +11767,11 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.4" thickBot="1">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11788,7 +11783,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="70" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11798,7 +11793,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11808,7 +11803,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11818,21 +11813,21 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11844,7 +11839,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11864,7 +11859,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11914,7 +11909,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11924,11 +11919,11 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12063,8 +12058,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12149,15 +12144,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -12170,16 +12165,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12191,7 +12186,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -12211,7 +12206,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -12221,7 +12216,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12231,11 +12226,11 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12247,7 +12242,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12257,7 +12252,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12267,7 +12262,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -12277,21 +12272,21 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12313,7 +12308,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12323,7 +12318,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12333,7 +12328,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -12373,7 +12368,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12383,11 +12378,11 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12399,7 +12394,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -12519,11 +12514,11 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12608,15 +12603,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -12629,14 +12624,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -12679,7 +12674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12694,8 +12689,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12742,7 +12737,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -12750,8 +12745,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12846,7 +12841,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12981,7 +12976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13066,7 +13061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -13107,16 +13102,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A45" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="28.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13171,7 +13166,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -13218,7 +13213,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -13226,7 +13221,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -13258,7 +13253,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -13268,7 +13263,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -13321,7 +13316,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13456,7 +13451,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13541,12 +13536,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="72">
+    <row r="93" spans="1:1" ht="75">
       <c r="A93" s="37" t="s">
         <v>251</v>
       </c>
@@ -13577,14 +13572,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -13689,7 +13684,7 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
@@ -13874,7 +13869,7 @@
     </row>
     <row r="61" spans="1:1" ht="27.75" customHeight="1">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="27.75" customHeight="1">
@@ -13904,7 +13899,7 @@
     </row>
     <row r="67" spans="1:1" ht="27.75" customHeight="1">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="27.75" customHeight="1">
@@ -13914,7 +13909,7 @@
     </row>
     <row r="69" spans="1:1" ht="27.75" customHeight="1">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="27.75" customHeight="1">
@@ -13924,7 +13919,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="27.75" customHeight="1">
@@ -14017,9 +14012,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="158.4">
+    <row r="93" spans="1:1" ht="165">
       <c r="A93" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -14038,16 +14033,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="116.44140625" customWidth="1"/>
+    <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="28.5">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -14089,7 +14084,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="39" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14099,13 +14094,13 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
@@ -14137,7 +14132,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -14147,23 +14142,23 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
@@ -14185,7 +14180,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14195,7 +14190,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14205,7 +14200,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14215,7 +14210,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -14225,7 +14220,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -14235,7 +14230,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14245,7 +14240,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -14255,13 +14250,13 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="51" t="s">
         <v>36</v>
       </c>
@@ -14392,8 +14387,8 @@
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="16" t="s">
-        <v>44</v>
+      <c r="A71" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -14402,7 +14397,7 @@
     <row r="73" spans="1:1">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="54" t="s">
         <v>55</v>
       </c>
@@ -14490,14 +14485,14 @@
     <row r="91" spans="1:1">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="56" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -14515,14 +14510,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A41" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14567,7 +14562,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14580,7 +14575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -14602,7 +14597,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -14627,15 +14622,15 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="28.8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -14647,7 +14642,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -14657,7 +14652,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14667,7 +14662,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14677,7 +14672,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14697,7 +14692,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -14707,7 +14702,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14717,7 +14712,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -14727,10 +14722,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -14862,7 +14857,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -14870,7 +14865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -14955,14 +14950,14 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="43.2">
+    <row r="93" spans="1:1" ht="45">
       <c r="A93" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -14996,14 +14991,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15018,7 +15013,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1">
@@ -15028,7 +15023,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1">
@@ -15048,7 +15043,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1">
@@ -15058,7 +15053,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15073,7 +15068,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1">
@@ -15083,7 +15078,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1">
@@ -15108,12 +15103,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
       <c r="A23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15128,7 +15123,7 @@
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1">
@@ -15138,7 +15133,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1">
@@ -15148,7 +15143,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1">
@@ -15158,7 +15153,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1">
       <c r="A33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1">
@@ -15178,7 +15173,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1">
       <c r="A37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1">
@@ -15198,7 +15193,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1">
       <c r="A41" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1">
@@ -15208,7 +15203,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15263,7 +15258,7 @@
     </row>
     <row r="55" spans="1:1" ht="27.75" customHeight="1">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="27.75" customHeight="1">
@@ -15323,7 +15318,7 @@
     </row>
     <row r="67" spans="1:1" ht="27.75" customHeight="1">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="27.75" customHeight="1">
@@ -15343,7 +15338,7 @@
     </row>
     <row r="71" spans="1:1" ht="27.75" customHeight="1">
       <c r="A71" t="s">
-        <v>347</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="27.75" customHeight="1">
@@ -15441,9 +15436,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="86.4">
+    <row r="93" spans="1:1" ht="90">
       <c r="A93" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -15455,14 +15450,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -15477,7 +15472,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -15507,7 +15502,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -15517,10 +15512,10 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="28.8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -15542,7 +15537,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -15567,7 +15562,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -15575,7 +15570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -15587,7 +15582,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -15597,7 +15592,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -15607,7 +15602,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -15617,7 +15612,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -15627,7 +15622,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -15637,7 +15632,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -15647,7 +15642,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -15657,7 +15652,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -15667,10 +15662,10 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" ht="28.8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -15682,7 +15677,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -15692,7 +15687,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21">
@@ -15702,7 +15697,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21">
@@ -15722,7 +15717,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21">
@@ -15742,7 +15737,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21">
@@ -15752,7 +15747,7 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21">
@@ -15762,7 +15757,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21">
@@ -15772,7 +15767,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21">
@@ -15802,7 +15797,7 @@
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -15810,7 +15805,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8">
+    <row r="75" spans="1:1" ht="28.5">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -15895,14 +15890,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="28.5">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -15920,12 +15915,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16061,15 +16053,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16093,17 +16096,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -857,9 +857,6 @@
     <t>http://purl.allotrope.org/voc/afo/merged/REC/2021/09/merged-and-inferred</t>
   </si>
   <si>
-    <t>Missing/not found</t>
-  </si>
-  <si>
     <t>https://allotrope.jfrog.io/ui/repos/tree/General/AFO-release-public</t>
   </si>
   <si>
@@ -1727,6 +1724,9 @@
   </si>
   <si>
     <t>http://www.molmod.info/semantics/osmo.ttl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.allotrope.org/resources </t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3102,7 +3102,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -3112,7 +3112,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -3122,7 +3122,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -3132,7 +3132,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -3147,7 +3147,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -3157,7 +3157,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -3167,7 +3167,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="59" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -3177,17 +3177,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="45">
       <c r="A23" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -3197,12 +3197,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3212,7 +3212,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3222,7 +3222,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3232,7 +3232,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3242,7 +3242,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3252,7 +3252,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3262,7 +3262,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3272,7 +3272,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3282,7 +3282,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -3517,7 +3517,7 @@
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -3568,7 +3568,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -3588,7 +3588,7 @@
     </row>
     <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -3598,7 +3598,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -3613,7 +3613,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -3623,7 +3623,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -3633,7 +3633,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -3643,17 +3643,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -3663,12 +3663,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3678,7 +3678,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3688,7 +3688,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3698,7 +3698,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3708,7 +3708,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3718,7 +3718,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3728,7 +3728,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3738,7 +3738,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3748,7 +3748,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -3983,7 +3983,7 @@
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -4006,7 +4006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4058,7 +4058,7 @@
     </row>
     <row r="9" spans="1:1" ht="75">
       <c r="A9" s="39" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -4068,7 +4068,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -4083,7 +4083,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -4093,7 +4093,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -4113,17 +4113,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -4133,12 +4133,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4158,7 +4158,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -4168,7 +4168,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4188,7 +4188,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4198,7 +4198,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4208,7 +4208,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4218,7 +4218,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -4453,12 +4453,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4492,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4598,13 +4598,13 @@
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
-        <v>357</v>
+      <c r="A21" s="70" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4619,12 +4619,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4644,7 +4644,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -4654,7 +4654,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4664,7 +4664,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -4674,7 +4674,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4684,7 +4684,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4694,7 +4694,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4704,7 +4704,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -4719,7 +4719,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -4729,7 +4729,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21">
@@ -4739,7 +4739,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21">
@@ -4939,7 +4939,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4960,9 +4960,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A17" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5022,7 +5023,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="62" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -5032,7 +5033,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -5047,7 +5048,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -5057,7 +5058,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21">
@@ -5078,17 +5079,17 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1">
@@ -5098,7 +5099,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5123,7 +5124,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5133,7 +5134,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5143,7 +5144,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5153,7 +5154,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5163,7 +5164,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5173,7 +5174,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5183,7 +5184,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -5418,7 +5419,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5472,7 +5473,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -5502,7 +5503,7 @@
     </row>
     <row r="9" spans="1:1" ht="150">
       <c r="A9" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -5512,7 +5513,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -5527,7 +5528,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -5537,7 +5538,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -5547,7 +5548,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -5557,17 +5558,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -5577,12 +5578,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -5592,7 +5593,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -5602,7 +5603,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -5612,7 +5613,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5632,7 +5633,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5642,7 +5643,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5652,7 +5653,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5662,7 +5663,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -5897,7 +5898,7 @@
     </row>
     <row r="93" spans="1:1" ht="60">
       <c r="A93" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5955,7 +5956,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -5965,7 +5966,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -5975,7 +5976,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -6021,7 +6022,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" s="70"/>
     </row>
@@ -6047,7 +6048,7 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6062,12 +6063,12 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6077,7 +6078,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6087,7 +6088,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="70" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6107,7 +6108,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -6127,7 +6128,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6147,7 +6148,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -6382,7 +6383,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -6446,7 +6447,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -6456,7 +6457,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -6466,7 +6467,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="70" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -6491,7 +6492,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -6501,7 +6502,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6511,7 +6512,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -6521,17 +6522,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -6541,7 +6542,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -6566,7 +6567,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6596,7 +6597,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6606,7 +6607,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6616,7 +6617,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -6626,7 +6627,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -6861,7 +6862,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -6915,7 +6916,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -6945,7 +6946,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -6955,7 +6956,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -6970,7 +6971,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -6980,7 +6981,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6990,7 +6991,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -7005,12 +7006,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -7020,12 +7021,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7035,7 +7036,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7045,7 +7046,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7065,7 +7066,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7075,7 +7076,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7085,7 +7086,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7105,7 +7106,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -7340,7 +7341,7 @@
     </row>
     <row r="93" spans="1:1" ht="45">
       <c r="A93" s="71" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7393,7 +7394,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -7423,7 +7424,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -7433,7 +7434,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -7448,7 +7449,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -7458,7 +7459,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -7483,7 +7484,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7498,12 +7499,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7513,7 +7514,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7543,7 +7544,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7553,7 +7554,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7563,7 +7564,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7818,7 +7819,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -8423,7 +8424,7 @@
     </row>
     <row r="19" spans="1:47" ht="69.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>93</v>
@@ -8432,7 +8433,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="16"/>
@@ -8727,7 +8728,7 @@
     </row>
     <row r="31" spans="1:47" ht="69.75" customHeight="1">
       <c r="A31" s="72" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>93</v>
@@ -8870,7 +8871,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -8880,7 +8881,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -8895,7 +8896,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -8905,7 +8906,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -8930,12 +8931,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -8945,12 +8946,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -8960,7 +8961,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -8970,7 +8971,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8980,7 +8981,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -8990,7 +8991,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9000,7 +9001,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9010,7 +9011,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9030,7 +9031,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -9260,7 +9261,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="71" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9313,7 +9314,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9343,7 +9344,7 @@
     </row>
     <row r="9" spans="1:1" ht="45">
       <c r="A9" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9353,7 +9354,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -9368,7 +9369,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -9378,7 +9379,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -9388,7 +9389,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9398,17 +9399,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -9418,12 +9419,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -9433,7 +9434,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -9443,7 +9444,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="70" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9453,7 +9454,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9463,7 +9464,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9473,7 +9474,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9483,7 +9484,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9503,7 +9504,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -9733,7 +9734,7 @@
     </row>
     <row r="93" spans="1:1" ht="30">
       <c r="A93" s="71" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9787,7 +9788,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9817,7 +9818,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9827,7 +9828,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -9863,7 +9864,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9878,12 +9879,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -9894,7 +9895,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -9919,7 +9920,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9929,7 +9930,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9939,7 +9940,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9949,7 +9950,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9969,7 +9970,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -9979,7 +9980,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10212,7 +10213,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -10246,7 +10247,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -10266,7 +10267,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -10276,7 +10277,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10286,7 +10287,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10312,7 +10313,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10322,7 +10323,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -10337,12 +10338,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10353,7 +10354,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -10378,7 +10379,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10388,7 +10389,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10398,7 +10399,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10408,7 +10409,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="75" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10428,7 +10429,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10438,7 +10439,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10671,7 +10672,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -10735,7 +10736,7 @@
     </row>
     <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10745,7 +10746,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10761,7 +10762,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -10771,7 +10772,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10791,17 +10792,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10812,12 +10813,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -10827,7 +10828,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -10837,7 +10838,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10847,7 +10848,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10857,7 +10858,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10887,7 +10888,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10897,7 +10898,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10913,7 +10914,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -11130,12 +11131,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -11169,7 +11170,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11189,7 +11190,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21">
@@ -11199,55 +11200,55 @@
     </row>
     <row r="9" spans="1:17" ht="45">
       <c r="A9" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" t="s">
         <v>487</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>488</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>489</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>490</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>491</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>492</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>493</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>494</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>495</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>496</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>497</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>498</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>499</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>500</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>501</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11257,7 +11258,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
@@ -11273,7 +11274,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="70" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11283,7 +11284,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11293,7 +11294,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11303,17 +11304,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11324,12 +11325,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11349,7 +11350,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11359,7 +11360,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11369,7 +11370,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11399,7 +11400,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11409,7 +11410,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11642,7 +11643,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -11679,7 +11680,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11709,55 +11710,55 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="76" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" t="s">
         <v>487</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>488</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>489</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>490</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>491</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>492</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>493</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>494</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>495</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>496</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>497</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>498</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>499</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>500</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>501</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11767,7 +11768,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
@@ -11783,7 +11784,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11793,7 +11794,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11803,7 +11804,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11813,17 +11814,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11834,12 +11835,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11859,7 +11860,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11909,7 +11910,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11919,7 +11920,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12152,7 +12153,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -12186,7 +12187,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -12206,7 +12207,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -12216,7 +12217,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12226,7 +12227,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12242,7 +12243,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12252,7 +12253,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12262,7 +12263,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -12272,17 +12273,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12293,7 +12294,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -12308,7 +12309,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12318,7 +12319,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12328,7 +12329,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -12368,7 +12369,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12378,7 +12379,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12394,7 +12395,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -12611,7 +12612,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -12737,7 +12738,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -12753,7 +12754,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -13213,7 +13214,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -13228,7 +13229,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -13253,7 +13254,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -13263,7 +13264,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -13572,8 +13573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
@@ -13658,7 +13659,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="70" t="s">
         <v>258</v>
       </c>
     </row>
@@ -13668,8 +13669,8 @@
       </c>
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>259</v>
+      <c r="A19" s="70" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1">
@@ -13679,17 +13680,17 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1">
@@ -13699,12 +13700,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1">
       <c r="A27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1">
@@ -13724,7 +13725,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1">
@@ -13754,7 +13755,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1">
       <c r="A37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1">
@@ -13764,7 +13765,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1">
@@ -14014,7 +14015,7 @@
     </row>
     <row r="93" spans="1:1" ht="165">
       <c r="A93" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -14024,6 +14025,7 @@
     <hyperlink ref="A15" r:id="rId3"/>
     <hyperlink ref="A23" r:id="rId4"/>
     <hyperlink ref="A39" r:id="rId5"/>
+    <hyperlink ref="A19" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14084,7 +14086,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14094,7 +14096,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -14132,7 +14134,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -14142,17 +14144,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -14165,12 +14167,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -14180,7 +14182,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14190,7 +14192,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14200,7 +14202,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14210,7 +14212,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -14220,7 +14222,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -14230,7 +14232,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14240,7 +14242,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -14250,7 +14252,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -14492,7 +14494,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -14562,7 +14564,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14597,7 +14599,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -14622,12 +14624,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -14637,12 +14639,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -14652,7 +14654,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14662,7 +14664,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14672,7 +14674,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14692,7 +14694,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -14702,7 +14704,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14712,7 +14714,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -14722,7 +14724,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -14957,7 +14959,7 @@
     </row>
     <row r="93" spans="1:1" ht="45">
       <c r="A93" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -15013,7 +15015,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1">
@@ -15023,7 +15025,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1">
       <c r="A5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1">
@@ -15043,7 +15045,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1">
@@ -15053,7 +15055,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15068,7 +15070,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1">
@@ -15078,7 +15080,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1">
@@ -15103,12 +15105,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15118,12 +15120,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1">
       <c r="A27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1">
@@ -15133,7 +15135,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1">
@@ -15143,7 +15145,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1">
       <c r="A31" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1">
@@ -15153,7 +15155,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1">
@@ -15163,7 +15165,7 @@
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1">
       <c r="A35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1">
@@ -15173,7 +15175,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1">
       <c r="A37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1">
@@ -15183,7 +15185,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1">
@@ -15193,7 +15195,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1">
@@ -15203,7 +15205,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1">
       <c r="A43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15438,7 +15440,7 @@
     </row>
     <row r="93" spans="1:1" ht="90">
       <c r="A93" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -15472,7 +15474,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -15502,7 +15504,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -15512,7 +15514,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -15537,7 +15539,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -15562,7 +15564,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -15577,12 +15579,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -15592,7 +15594,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -15602,7 +15604,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -15612,7 +15614,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -15622,7 +15624,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -15632,7 +15634,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -15642,7 +15644,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -15652,7 +15654,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -15662,7 +15664,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -15897,7 +15899,7 @@
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:1">

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="541">
   <si>
     <t>Ontology</t>
   </si>
@@ -854,9 +854,6 @@
     <t>https://www.allotrope.org/</t>
   </si>
   <si>
-    <t>http://purl.allotrope.org/voc/afo/merged/REC/2021/09/merged-and-inferred</t>
-  </si>
-  <si>
     <t>https://allotrope.jfrog.io/ui/repos/tree/General/AFO-release-public</t>
   </si>
   <si>
@@ -879,19 +876,6 @@
   </si>
   <si>
     <t>https://bioportal.bioontology.org/ontologies/AFO/?p=mappings</t>
-  </si>
-  <si>
-    <t>Reasoning mit HermiT durchgeführt, zahl hinter verzeichnis sind die Axiome der jeweiligen Ontologie
-kein Reasoning mit FacT++ moglich, da Probleme mit xml:date
-afo/rec/2022/09/afo.ttl -&gt; 15268    INFO  09:43:25  Ontologies processed in 27652 ms by HermiT
-afo/CR/2022/09/afo.ttl -&gt; 54
-afo/WD/2022/09/afo.ttl -&gt; 15365  INFO  09:44:46  Ontologies processed in 5545 ms by HermiT
-afo/merged/REC/2022/09/merged -&gt; 40505
-afo/merged/REC/2022/09/merged-without-qudt -&gt; 24409   INFO  09:49:23  Ontologies processed in 72411 ms by HermiT
-afo/merged/REC/2022/09/merged-without-qudt-inferred -&gt; 24605    INFO  09:52:24  Ontologies processed in 109828 ms by HermiT
-afo/merged/CR/2022/09/merged -&gt; 40526
-afo/merged/CR/2022/09/merged-without-qudt -&gt; 24431  INFO  09:54:34  Ontologies processed in 84000 ms by HermiT
-afo/merged/CR/2022/09/merged-without-qudt-inferred -&gt; 24686 INFO  09:59:11  Ontologies processed in 77669 ms by HermiT</t>
   </si>
   <si>
     <t>doi:10.1007/s13218-020-00648-9; doi:10.1021/acs.jced.9b00739; doi:10.5281/zenodo.3936795; Virtual Materials Marketplace (VIMMP) project consortium;Adham Hashibon; Andrea Scotto di Minico; Andreas Fiseni; Barbara Andreon; Barbora Planková (ORCID 0000-0002-3309-6809); Björn Schembera (ORCID 0000-0003-2860-6621); Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Emanuele Ghedini (ORCID 0000-0003-3805-8761); Esteban Bayro Kaiser (ORCID 0000-0002-5281-0836); Georg J. Schmitz (0000-0003-4065-9742); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Hauke Brüning; Helge Krieg; Ignacio Pagonabarraga Mora (ORCID 0000-0002-6187-5025); Jadran Vrabec (ORCID 0000-0002-7947-4051); Javier Díaz Brañas; Jean-Pierre Minier; Joshua D. Elliott (ORCID 0000-0002-0729-246X); Karel Šindelka (ORCID 0000-0003-3925-924X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Martin Lísal (ORCID 0000-0001-8005-7143); Natalia A. Konchakova; Paola Carbone (ORCID 0000-0001-9927-8376); Pascale Noyret; Peter Klein; Peter Schiffels; Philipp Neumann; Vincent Stobiac; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Youness Bami; Yvan Fournier; Éric Fayolle; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)</t>
@@ -1234,9 +1218,6 @@
     <t>Virtual Materials Marketplace Ontology</t>
   </si>
   <si>
-    <t>https://purl.vimmp.eu/semantics/combined/combined-vimmp-ontologies.ttl</t>
-  </si>
-  <si>
     <t>combined and inferred</t>
   </si>
   <si>
@@ -1312,9 +1293,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>The M3 Ontology can be considered more of a Taxonomy as it lags definitions, sets up several Equivalences which are neither well defined nor well hierarchically structured. Some of the classes such as "Phosphorous" also seem to be out of place in a Internet of things Ontology , espaccially if they are not well defined (limited by a definition)</t>
-  </si>
-  <si>
     <t>https://www.psidev.info/groups/controlled-vocabularies</t>
   </si>
   <si>
@@ -1354,9 +1332,6 @@
     <t>rdfs:Label, "IAO:000015": textual definition</t>
   </si>
   <si>
-    <t>well implemented and structured ontology</t>
-  </si>
-  <si>
     <t>Ontology for Manufacturing and Logistics</t>
   </si>
   <si>
@@ -1414,9 +1389,6 @@
     <t>https://github.com/edamontology/edamontology/tree/main/releases</t>
   </si>
   <si>
-    <t>An Ontology consisting of several Terms relevant for DANN and Enzymatic activity. Imports OBO Ontology terms and classes while not being alligned to an Ontology</t>
-  </si>
-  <si>
     <t>Optional links (Papers, Additional GitHub Repo,...)</t>
   </si>
   <si>
@@ -1450,9 +1422,6 @@
     <t>Physico-chemical process</t>
   </si>
   <si>
-    <t>Orphaned ontology! Contains plenty of reaction classes, also catalytic ones. Only classifies broadly and does not contain many relations.</t>
-  </si>
-  <si>
     <t>RXNO: name reaction ontology</t>
   </si>
   <si>
@@ -1727,6 +1696,49 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.allotrope.org/resources </t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/nfdi4cat/Ontology-Overview-of-NFDI4Cat/main/ontologies/AFO.ttl</t>
+  </si>
+  <si>
+    <t>No persistant URL to ontology-file available, thus a copy of the ontology is hosted in this github-repo in subdirectory ./ontologies/ 
+No reasoning possible with FacT++ , as problems with xml:date persist.
+Reasoning works with HermiT. Listed below are the number of axioms of the respective subview of the AFO
+afo/rec/2022/09/afo.ttl -&gt; 15268    INFO  09:43:25  Ontologies processed in 27652 ms by HermiT
+afo/CR/2022/09/afo.ttl -&gt; 54
+afo/WD/2022/09/afo.ttl -&gt; 15365  INFO  09:44:46  Ontologies processed in 5545 ms by HermiT
+afo/merged/REC/2022/09/merged -&gt; 40505
+afo/merged/REC/2022/09/merged-without-qudt -&gt; 24409   INFO  09:49:23  Ontologies processed in 72411 ms by HermiT
+afo/merged/REC/2022/09/merged-without-qudt-inferred -&gt; 24605    INFO  09:52:24  Ontologies processed in 109828 ms by HermiT
+afo/merged/CR/2022/09/merged -&gt; 40526
+afo/merged/CR/2022/09/merged-without-qudt -&gt; 24431  INFO  09:54:34  Ontologies processed in 84000 ms by HermiT
+afo/merged/CR/2022/09/merged-without-qudt-inferred -&gt; 24686 INFO  09:59:11  Ontologies processed in 77669 ms by HermiT</t>
+  </si>
+  <si>
+    <t>Orphaned ontology! Contains plenty of reaction classes, also catalytic ones. Only classifies broadly and does not contain many relations.
+However, some catalysis classifications are contained.</t>
+  </si>
+  <si>
+    <t>contained: narrower</t>
+  </si>
+  <si>
+    <t>contained: broader</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/vimmp-semantics/vimmp-ontologies/-/raw/master/combined/combined-vimmp-ontologies.ttl</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/emmo-repo/EMMO/master/emmo.ttl</t>
+  </si>
+  <si>
+    <t>well implemented and structured ontology. A structured controlled vocabulary for the annotation of experiments concerned with proteomics mass spectrometry.</t>
+  </si>
+  <si>
+    <t>The M3 Ontology can be considered more of a Taxonomy as it lacks definitions, sets up several equivalences which are neither well defined nor well hierarchically structured. Not really reusable. Some of the classes such as "Phosphorous" also seem to be out of place in a Internet of things Ontology , espaccially if they are not well defined (limited by a definition). The Machine-to-Machine Measurement (M3) Ontology is a unified language, nomenclature, dictionnary which enables semantically annotating heterogeneous IoT data produced by heterogeneous devices measurements (sensors, RFID tags, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Ontology consisting of several Terms relevant for DANN and Enzymatic activity. Imports OBO Ontology terms and classes while not being alligned to an Ontology. Good representation for description of proteins and enzyme kinetics.
+EDAM is a domain ontology of data analysis and data management in bio- and other sciences, and science-based applications. It comprises concepts related to analysis, modelling, optimisation, and data life-cycle. </t>
   </si>
 </sst>
 </file>
@@ -2675,7 +2687,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -3102,7 +3114,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -3112,7 +3124,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -3122,7 +3134,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -3132,7 +3144,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -3147,7 +3159,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -3157,7 +3169,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -3167,7 +3179,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="59" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -3177,17 +3189,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="45">
       <c r="A23" s="39" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -3197,12 +3209,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3212,7 +3224,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3222,7 +3234,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3232,7 +3244,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3242,7 +3254,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3252,7 +3264,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3262,7 +3274,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3272,7 +3284,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3282,7 +3294,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -3517,7 +3529,7 @@
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -3568,7 +3580,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -3588,7 +3600,7 @@
     </row>
     <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -3598,7 +3610,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -3613,7 +3625,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -3623,7 +3635,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -3633,7 +3645,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -3643,17 +3655,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -3663,12 +3675,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -3678,7 +3690,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -3688,7 +3700,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -3698,7 +3710,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -3708,7 +3720,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -3718,7 +3730,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -3728,7 +3740,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -3738,7 +3750,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -3748,7 +3760,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -3983,7 +3995,7 @@
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -4028,7 +4040,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4058,7 +4070,7 @@
     </row>
     <row r="9" spans="1:1" ht="75">
       <c r="A9" s="39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -4068,7 +4080,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -4083,7 +4095,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -4093,7 +4105,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -4113,17 +4125,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -4133,12 +4145,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4158,7 +4170,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -4168,7 +4180,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4188,7 +4200,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4198,7 +4210,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4208,7 +4220,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4218,7 +4230,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -4453,12 +4465,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4492,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4514,7 +4526,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4599,12 +4611,12 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4619,12 +4631,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -4644,7 +4656,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -4654,7 +4666,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4664,7 +4676,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -4674,7 +4686,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -4684,7 +4696,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -4694,7 +4706,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -4704,7 +4716,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -4719,7 +4731,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -4729,7 +4741,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21">
@@ -4739,7 +4751,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21">
@@ -4769,7 +4781,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -4779,7 +4791,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21">
@@ -4937,9 +4949,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" ht="30">
       <c r="A93" s="37" t="s">
-        <v>445</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4971,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5023,7 +5035,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -5033,7 +5045,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -5048,7 +5060,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -5058,7 +5070,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21">
@@ -5079,17 +5091,17 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="29.25" thickBot="1">
@@ -5099,7 +5111,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -5124,7 +5136,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -5134,7 +5146,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5144,7 +5156,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -5154,7 +5166,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5164,7 +5176,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5174,7 +5186,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5184,7 +5196,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -5199,7 +5211,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -5229,7 +5241,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>534</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -5239,7 +5251,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>535</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21">
@@ -5249,7 +5261,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -5269,7 +5281,7 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21">
@@ -5279,7 +5291,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21">
@@ -5419,7 +5431,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5451,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -5473,7 +5485,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -5503,7 +5515,7 @@
     </row>
     <row r="9" spans="1:1" ht="150">
       <c r="A9" s="39" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -5513,7 +5525,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -5528,7 +5540,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -5537,8 +5549,8 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
-        <v>373</v>
+      <c r="A17" s="70" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -5548,7 +5560,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -5558,17 +5570,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -5578,12 +5590,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -5593,7 +5605,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -5603,7 +5615,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -5613,7 +5625,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5633,7 +5645,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -5643,7 +5655,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5653,7 +5665,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -5663,7 +5675,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -5708,7 +5720,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -5718,7 +5730,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21">
@@ -5748,7 +5760,7 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="21">
@@ -5758,7 +5770,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21">
@@ -5768,7 +5780,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21">
@@ -5898,7 +5910,7 @@
     </row>
     <row r="93" spans="1:1" ht="60">
       <c r="A93" s="37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5921,12 +5933,11 @@
     <hyperlink ref="A21" r:id="rId1"/>
     <hyperlink ref="A15" r:id="rId2"/>
     <hyperlink ref="A23" r:id="rId3"/>
-    <hyperlink ref="A17" r:id="rId4"/>
-    <hyperlink ref="A9" r:id="rId5" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
-    <hyperlink ref="A19" r:id="rId6"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://doi.org/10.3030/760907 Virtual Materials Marketplace (VIMMP) project consortium; Andreas Fiseni; Christoph Niethammer; Daniele Toti (ORCID 0000-0002-9668-6961); Gerhard Goldbeck (ORCID 0000-0002-4181-2852); Gianluca Boccardo (ORCID 0000-0003-1264-8237); Helge Krieg; Jadran Vrabec (ORCID 0000-0002-7947-4051); Joshua D. Elliott (ORCID 0000-0002-0729-246X); Mara Chiricotto (ORCID 0000-0003-1609-5254); Paola Carbone (ORCID 0000-0001-9927-8376); Peter Schiffels; Philipp Neumann; Vladimir Lobaskin (ORCID 0000-0002-5231-0639); Welchy Leite Cavalcanti; Ilian T. Todorov (ORCID 0000-0001-7275-1784); Martin Thomas Horsch (ORCID 0000-0002-9464-6739); Michael A. Seaton (ORCID 0000-0002-4708-573X); Silvia Chiacchiera (ORCID 0000-0003-0422-7870)"/>
+    <hyperlink ref="A19" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -5934,8 +5945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5956,7 +5967,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21">
@@ -5966,7 +5977,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21">
@@ -5976,7 +5987,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21">
@@ -6022,7 +6033,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="70" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C17" s="70"/>
     </row>
@@ -6048,7 +6059,7 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6063,12 +6074,12 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6078,7 +6089,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6088,7 +6099,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="70" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6108,7 +6119,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -6128,7 +6139,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6148,7 +6159,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -6383,7 +6394,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -6415,8 +6426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6437,7 +6448,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -6447,7 +6458,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -6457,7 +6468,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -6467,7 +6478,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -6492,7 +6503,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -6501,8 +6512,8 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
-        <v>401</v>
+      <c r="A17" s="70" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6512,7 +6523,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -6522,17 +6533,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -6542,7 +6553,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -6567,7 +6578,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6597,7 +6608,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6607,7 +6618,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6617,7 +6628,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -6627,7 +6638,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -6652,7 +6663,7 @@
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="21">
@@ -6662,7 +6673,7 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="21">
@@ -6672,7 +6683,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -6682,7 +6693,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21">
@@ -6692,7 +6703,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -6702,7 +6713,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="21">
@@ -6862,7 +6873,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>413</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -6884,9 +6895,10 @@
   <hyperlinks>
     <hyperlink ref="A23" r:id="rId1"/>
     <hyperlink ref="A9" r:id="rId2" tooltip="Home" display="https://www.psidev.info/"/>
+    <hyperlink ref="A17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -6894,8 +6906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6916,7 +6928,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -6946,7 +6958,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -6956,7 +6968,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -6971,7 +6983,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -6980,8 +6992,8 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
-        <v>389</v>
+      <c r="A17" s="70" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6991,7 +7003,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -7006,12 +7018,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -7021,12 +7033,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7036,7 +7048,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7046,7 +7058,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7066,7 +7078,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7076,7 +7088,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7086,7 +7098,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7106,7 +7118,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -7171,7 +7183,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -7221,7 +7233,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21">
@@ -7231,7 +7243,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="21">
@@ -7339,9 +7351,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="45">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="71" t="s">
-        <v>399</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7362,9 +7374,10 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A23" r:id="rId1"/>
+    <hyperlink ref="A17" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7372,8 +7385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -7394,7 +7407,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -7424,7 +7437,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -7434,7 +7447,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -7449,7 +7462,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -7459,7 +7472,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -7484,7 +7497,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7499,12 +7512,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -7514,7 +7527,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -7544,7 +7557,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7554,7 +7567,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7564,7 +7577,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7819,7 +7832,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="71" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -8424,7 +8437,7 @@
     </row>
     <row r="19" spans="1:47" ht="69.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>93</v>
@@ -8433,7 +8446,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="16"/>
@@ -8728,7 +8741,7 @@
     </row>
     <row r="31" spans="1:47" ht="69.75" customHeight="1">
       <c r="A31" s="72" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>93</v>
@@ -8819,7 +8832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -8871,7 +8884,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -8881,7 +8894,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -8896,7 +8909,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -8906,7 +8919,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -8931,12 +8944,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -8946,12 +8959,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -8961,7 +8974,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -8971,7 +8984,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="70" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8981,7 +8994,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -8991,7 +9004,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9001,7 +9014,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9011,7 +9024,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9031,7 +9044,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -9261,7 +9274,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="71" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9292,8 +9305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9314,7 +9327,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9344,7 +9357,7 @@
     </row>
     <row r="9" spans="1:1" ht="45">
       <c r="A9" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9354,7 +9367,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.25" thickBot="1">
@@ -9369,7 +9382,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -9379,7 +9392,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -9389,7 +9402,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9399,17 +9412,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.25" thickBot="1">
@@ -9419,12 +9432,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -9434,7 +9447,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -9444,7 +9457,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="70" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9454,7 +9467,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9464,7 +9477,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9474,7 +9487,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9484,7 +9497,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -9504,7 +9517,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.25" thickBot="1">
@@ -9519,7 +9532,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -9549,7 +9562,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -9599,7 +9612,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21">
@@ -9609,7 +9622,7 @@
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="21">
@@ -9619,7 +9632,7 @@
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="21">
@@ -9732,9 +9745,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="30">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="71" t="s">
-        <v>433</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9767,8 +9780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9788,7 +9801,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9818,7 +9831,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9828,7 +9841,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -9864,7 +9877,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9879,12 +9892,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -9895,7 +9908,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -9920,7 +9933,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9930,7 +9943,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9940,7 +9953,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9950,7 +9963,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="75" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9970,7 +9983,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -9980,7 +9993,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10213,7 +10226,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -10227,7 +10240,7 @@
   <dimension ref="A1:A93"/>
   <sheetViews>
     <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A48" sqref="A48:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10247,7 +10260,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -10267,7 +10280,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -10277,7 +10290,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10287,7 +10300,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10313,7 +10326,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10323,7 +10336,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -10338,12 +10351,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="70" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10354,7 +10367,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -10379,7 +10392,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10389,7 +10402,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10399,7 +10412,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10409,7 +10422,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="75" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10429,7 +10442,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10439,7 +10452,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10672,7 +10685,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10736,7 +10749,7 @@
     </row>
     <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10746,7 +10759,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10762,7 +10775,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -10772,7 +10785,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10792,17 +10805,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10813,12 +10826,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -10828,7 +10841,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -10838,7 +10851,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10848,7 +10861,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10858,7 +10871,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10888,7 +10901,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10898,7 +10911,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -10914,7 +10927,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -11131,12 +11144,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -11149,7 +11162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -11170,7 +11183,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11190,7 +11203,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21">
@@ -11200,55 +11213,55 @@
     </row>
     <row r="9" spans="1:17" ht="45">
       <c r="A9" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" t="s">
+        <v>485</v>
+      </c>
+      <c r="I9" t="s">
         <v>486</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
         <v>487</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K9" t="s">
         <v>488</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>489</v>
       </c>
-      <c r="F9" t="s">
+      <c r="M9" t="s">
         <v>490</v>
       </c>
-      <c r="G9" t="s">
+      <c r="N9" t="s">
         <v>491</v>
       </c>
-      <c r="H9" t="s">
+      <c r="O9" t="s">
         <v>492</v>
       </c>
-      <c r="I9" t="s">
+      <c r="P9" t="s">
         <v>493</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" t="s">
         <v>494</v>
-      </c>
-      <c r="K9" t="s">
-        <v>495</v>
-      </c>
-      <c r="L9" t="s">
-        <v>496</v>
-      </c>
-      <c r="M9" t="s">
-        <v>497</v>
-      </c>
-      <c r="N9" t="s">
-        <v>498</v>
-      </c>
-      <c r="O9" t="s">
-        <v>499</v>
-      </c>
-      <c r="P9" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11258,7 +11271,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
@@ -11274,7 +11287,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="70" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11284,7 +11297,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11294,7 +11307,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11304,17 +11317,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11325,12 +11338,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11350,7 +11363,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11360,7 +11373,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -11370,7 +11383,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11400,7 +11413,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11410,7 +11423,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11643,7 +11656,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -11680,7 +11693,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11710,55 +11723,55 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="76" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F9" t="s">
+        <v>483</v>
+      </c>
+      <c r="G9" t="s">
+        <v>484</v>
+      </c>
+      <c r="H9" t="s">
+        <v>485</v>
+      </c>
+      <c r="I9" t="s">
         <v>486</v>
       </c>
-      <c r="C9" t="s">
+      <c r="J9" t="s">
         <v>487</v>
       </c>
-      <c r="D9" t="s">
+      <c r="K9" t="s">
         <v>488</v>
       </c>
-      <c r="E9" t="s">
+      <c r="L9" t="s">
         <v>489</v>
       </c>
-      <c r="F9" t="s">
+      <c r="M9" t="s">
         <v>490</v>
       </c>
-      <c r="G9" t="s">
+      <c r="N9" t="s">
         <v>491</v>
       </c>
-      <c r="H9" t="s">
+      <c r="O9" t="s">
         <v>492</v>
       </c>
-      <c r="I9" t="s">
+      <c r="P9" t="s">
         <v>493</v>
       </c>
-      <c r="J9" t="s">
+      <c r="Q9" t="s">
         <v>494</v>
-      </c>
-      <c r="K9" t="s">
-        <v>495</v>
-      </c>
-      <c r="L9" t="s">
-        <v>496</v>
-      </c>
-      <c r="M9" t="s">
-        <v>497</v>
-      </c>
-      <c r="N9" t="s">
-        <v>498</v>
-      </c>
-      <c r="O9" t="s">
-        <v>499</v>
-      </c>
-      <c r="P9" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11768,7 +11781,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
@@ -11784,7 +11797,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="70" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11794,7 +11807,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11804,7 +11817,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11814,17 +11827,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11835,12 +11848,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11860,7 +11873,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11910,7 +11923,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11920,7 +11933,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12153,7 +12166,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -12187,7 +12200,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -12207,7 +12220,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -12217,7 +12230,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12227,7 +12240,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12243,7 +12256,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="70" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12253,7 +12266,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="70" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12263,7 +12276,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="70" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -12273,17 +12286,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="70" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12294,7 +12307,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -12309,7 +12322,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12319,7 +12332,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="73" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12329,7 +12342,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="74" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -12369,7 +12382,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12379,7 +12392,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12395,7 +12408,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -12612,7 +12625,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -12625,8 +12638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12712,8 +12725,8 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
+      <c r="A17" s="70" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12738,7 +12751,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -12754,7 +12767,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -13090,9 +13103,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1"/>
-    <hyperlink ref="A17" r:id="rId2"/>
-    <hyperlink ref="A19" r:id="rId3"/>
-    <hyperlink ref="A15" r:id="rId4"/>
+    <hyperlink ref="A19" r:id="rId2"/>
+    <hyperlink ref="A15" r:id="rId3"/>
+    <hyperlink ref="A17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
@@ -13214,7 +13227,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -13229,7 +13242,7 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -13254,7 +13267,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -13264,7 +13277,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -13573,8 +13586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
@@ -13660,7 +13673,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
       <c r="A17" s="70" t="s">
-        <v>258</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1">
@@ -13670,7 +13683,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1">
       <c r="A19" s="70" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1">
@@ -13680,17 +13693,17 @@
     </row>
     <row r="21" spans="1:1" ht="27.75" customHeight="1">
       <c r="A21" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1">
@@ -13700,12 +13713,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1">
@@ -13725,7 +13738,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1">
@@ -13755,7 +13768,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1">
       <c r="A37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1">
@@ -13765,7 +13778,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1">
@@ -14013,19 +14026,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="165">
+    <row r="93" spans="1:1" ht="195">
       <c r="A93" s="1" t="s">
-        <v>267</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A17" r:id="rId1"/>
-    <hyperlink ref="A21" r:id="rId2"/>
-    <hyperlink ref="A15" r:id="rId3"/>
-    <hyperlink ref="A23" r:id="rId4"/>
-    <hyperlink ref="A39" r:id="rId5"/>
-    <hyperlink ref="A19" r:id="rId6"/>
+    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId2"/>
+    <hyperlink ref="A23" r:id="rId3"/>
+    <hyperlink ref="A39" r:id="rId4"/>
+    <hyperlink ref="A19" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14086,7 +14098,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="39" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14096,7 +14108,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -14134,7 +14146,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -14144,17 +14156,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -14167,12 +14179,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -14182,7 +14194,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14192,7 +14204,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14202,7 +14214,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="16" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14212,7 +14224,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -14222,7 +14234,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -14232,7 +14244,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14242,7 +14254,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -14252,7 +14264,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -14494,7 +14506,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -14564,7 +14576,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14599,7 +14611,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -14624,12 +14636,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="28.5">
@@ -14639,12 +14651,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -14654,7 +14666,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -14664,7 +14676,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14674,7 +14686,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14694,7 +14706,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -14704,7 +14716,7 @@
     </row>
     <row r="39" spans="1:1" ht="58.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14714,7 +14726,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -14724,7 +14736,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -14959,7 +14971,7 @@
     </row>
     <row r="93" spans="1:1" ht="45">
       <c r="A93" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -15015,7 +15027,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1">
@@ -15025,7 +15037,7 @@
     </row>
     <row r="5" spans="1:1" ht="27.75" customHeight="1">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27.75" customHeight="1">
@@ -15045,7 +15057,7 @@
     </row>
     <row r="9" spans="1:1" ht="27.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27.75" customHeight="1">
@@ -15055,7 +15067,7 @@
     </row>
     <row r="11" spans="1:1" ht="27.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15070,7 +15082,7 @@
     </row>
     <row r="15" spans="1:1" ht="27.75" customHeight="1">
       <c r="A15" s="14" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="27.75" customHeight="1">
@@ -15080,7 +15092,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1">
@@ -15105,12 +15117,12 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
       <c r="A23" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15120,12 +15132,12 @@
     </row>
     <row r="26" spans="1:1" ht="27.75" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="27.75" customHeight="1">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="27.75" customHeight="1">
@@ -15135,7 +15147,7 @@
     </row>
     <row r="29" spans="1:1" ht="27.75" customHeight="1">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="27.75" customHeight="1">
@@ -15145,7 +15157,7 @@
     </row>
     <row r="31" spans="1:1" ht="27.75" customHeight="1">
       <c r="A31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="27.75" customHeight="1">
@@ -15155,7 +15167,7 @@
     </row>
     <row r="33" spans="1:1" ht="27.75" customHeight="1">
       <c r="A33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="27.75" customHeight="1">
@@ -15165,7 +15177,7 @@
     </row>
     <row r="35" spans="1:1" ht="27.75" customHeight="1">
       <c r="A35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="27.75" customHeight="1">
@@ -15175,7 +15187,7 @@
     </row>
     <row r="37" spans="1:1" ht="27.75" customHeight="1">
       <c r="A37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="27.75" customHeight="1">
@@ -15185,7 +15197,7 @@
     </row>
     <row r="39" spans="1:1" ht="27.75" customHeight="1">
       <c r="A39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="27.75" customHeight="1">
@@ -15195,7 +15207,7 @@
     </row>
     <row r="41" spans="1:1" ht="27.75" customHeight="1">
       <c r="A41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="27.75" customHeight="1">
@@ -15205,7 +15217,7 @@
     </row>
     <row r="43" spans="1:1" ht="27.75" customHeight="1">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15440,7 +15452,7 @@
     </row>
     <row r="93" spans="1:1" ht="90">
       <c r="A93" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -15474,7 +15486,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -15504,7 +15516,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -15514,7 +15526,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="28.5">
@@ -15539,7 +15551,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -15564,7 +15576,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -15579,12 +15591,12 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -15594,7 +15606,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -15604,7 +15616,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -15614,7 +15626,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -15624,7 +15636,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -15634,7 +15646,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -15644,7 +15656,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -15654,7 +15666,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -15664,7 +15676,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="28.5">
@@ -15899,7 +15911,7 @@
     </row>
     <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -15917,9 +15929,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16055,26 +16070,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16098,9 +16102,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" firstSheet="16" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -9305,8 +9305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9780,8 +9780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10039,7 +10039,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -10059,7 +10059,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -10239,8 +10239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A70"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10689,8 +10689,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A17" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="16" activeTab="26"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="541">
   <si>
     <t>Ontology</t>
   </si>
@@ -1311,12 +1311,6 @@
     <t>HUPO Proteomics Standards Initiative</t>
   </si>
   <si>
-    <t>MS or PSI-MS</t>
-  </si>
-  <si>
-    <t>Proteomics Standards Initiative Mass Spectroscopy Ontology</t>
-  </si>
-  <si>
     <t>CC BY 4.0</t>
   </si>
   <si>
@@ -1742,6 +1736,9 @@
   </si>
   <si>
     <t>The Ontology for Biomedical Investigations (OBI) is build in a collaborative, international effort and will serve as a resource for annotating biomedical investigations, including the study design, protocols and instrumentation used, the data generated and the types of analysis performed on the data. This ontology arose from the Functional Genomics Investigation Ontology (FuGO) and will contain both terms that are common to all biomedical investigations, including functional genomics investigations and those that are more domain specific.</t>
+  </si>
+  <si>
+    <t>PSI-MS, Proteomics Standards Initiative Mass Spectroscopy Ontology</t>
   </si>
 </sst>
 </file>
@@ -3194,7 +3191,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="43.2">
@@ -3660,7 +3657,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4105,7 +4102,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -4130,7 +4127,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4465,12 +4462,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4526,7 +4523,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -4616,7 +4613,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -4666,7 +4663,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -4951,7 +4948,7 @@
     </row>
     <row r="93" spans="1:1" ht="28.8">
       <c r="A93" s="37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5096,7 +5093,7 @@
     </row>
     <row r="22" spans="1:6" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -5146,7 +5143,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -5241,7 +5238,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -5251,7 +5248,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21">
@@ -5261,7 +5258,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -5291,7 +5288,7 @@
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="21">
@@ -5550,7 +5547,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -5575,7 +5572,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -6059,7 +6056,7 @@
     </row>
     <row r="22" spans="1:3" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6099,7 +6096,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6119,7 +6116,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -6426,8 +6423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -6458,7 +6455,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -6468,7 +6465,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -6538,7 +6535,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -6578,7 +6575,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -6608,7 +6605,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6618,7 +6615,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6628,7 +6625,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -6638,7 +6635,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1">
@@ -6873,7 +6870,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7018,7 +7015,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7078,7 +7075,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7353,7 +7350,7 @@
     </row>
     <row r="93" spans="1:1" ht="57.6">
       <c r="A93" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7407,7 +7404,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -7437,7 +7434,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -7447,7 +7444,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1">
@@ -7462,7 +7459,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -7472,7 +7469,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -7497,7 +7494,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7557,7 +7554,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -7832,7 +7829,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -8437,7 +8434,7 @@
     </row>
     <row r="19" spans="1:47" ht="69.75" customHeight="1">
       <c r="A19" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>93</v>
@@ -8446,7 +8443,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="16"/>
@@ -8741,7 +8738,7 @@
     </row>
     <row r="31" spans="1:47" ht="69.75" customHeight="1">
       <c r="A31" s="70" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B31" s="64" t="s">
         <v>93</v>
@@ -8884,7 +8881,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -8894,7 +8891,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1">
@@ -8909,7 +8906,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -8919,7 +8916,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -8944,12 +8941,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1">
@@ -8984,7 +8981,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8994,7 +8991,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9004,7 +9001,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9044,7 +9041,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1">
@@ -9274,7 +9271,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9327,7 +9324,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9357,7 +9354,7 @@
     </row>
     <row r="9" spans="1:1" ht="43.2">
       <c r="A9" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9367,7 +9364,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.4" thickBot="1">
@@ -9382,7 +9379,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -9392,7 +9389,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -9402,7 +9399,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9412,17 +9409,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="29.4" thickBot="1">
@@ -9457,7 +9454,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9467,7 +9464,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9477,7 +9474,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9517,7 +9514,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="29.4" thickBot="1">
@@ -9747,7 +9744,7 @@
     </row>
     <row r="93" spans="1:1" ht="57.6">
       <c r="A93" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9801,7 +9798,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -9831,7 +9828,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -9841,7 +9838,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1"/>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -9892,12 +9889,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -9933,7 +9930,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9943,7 +9940,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -9953,7 +9950,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -9963,7 +9960,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="73" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9983,7 +9980,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -9993,7 +9990,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1"/>
@@ -10226,7 +10223,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -10260,7 +10257,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -10280,7 +10277,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -10290,7 +10287,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10300,7 +10297,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1"/>
@@ -10326,7 +10323,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10336,7 +10333,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -10351,12 +10348,12 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="14" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -10392,7 +10389,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10402,7 +10399,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10412,7 +10409,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10422,7 +10419,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="73" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10442,7 +10439,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10452,7 +10449,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1"/>
@@ -10685,7 +10682,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -10752,7 +10749,7 @@
     </row>
     <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -10762,7 +10759,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1"/>
@@ -10778,7 +10775,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="75" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -10788,7 +10785,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -10808,17 +10805,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -10844,7 +10841,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -10854,7 +10851,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10864,7 +10861,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="72" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -10874,7 +10871,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -10904,7 +10901,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -10914,7 +10911,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1"/>
@@ -10930,7 +10927,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -11147,12 +11144,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -11189,7 +11186,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11209,7 +11206,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21">
@@ -11219,55 +11216,55 @@
     </row>
     <row r="9" spans="1:17" ht="28.8">
       <c r="A9" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" t="s">
         <v>477</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>478</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>479</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>480</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>481</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>482</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>483</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>484</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>485</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>486</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>487</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>488</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>489</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>490</v>
-      </c>
-      <c r="P9" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11277,7 +11274,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1"/>
@@ -11293,7 +11290,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11303,7 +11300,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11313,7 +11310,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11323,17 +11320,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -11349,7 +11346,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11369,7 +11366,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11389,7 +11386,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11419,7 +11416,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11429,7 +11426,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1"/>
@@ -11662,7 +11659,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -11699,7 +11696,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11729,55 +11726,55 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="74" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D9" t="s">
         <v>477</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>478</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>479</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>480</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>481</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>482</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>483</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>484</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>485</v>
       </c>
-      <c r="K9" t="s">
+      <c r="M9" t="s">
         <v>486</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>487</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>488</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>489</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>490</v>
-      </c>
-      <c r="P9" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="21">
@@ -11787,7 +11784,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1"/>
@@ -11803,7 +11800,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11813,7 +11810,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11823,7 +11820,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11833,17 +11830,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -11859,7 +11856,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11879,7 +11876,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11929,7 +11926,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12172,7 +12169,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -12185,7 +12182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -12206,7 +12203,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -12226,7 +12223,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="21">
@@ -12236,7 +12233,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12246,7 +12243,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1"/>
@@ -12262,7 +12259,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12272,7 +12269,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12282,7 +12279,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -12292,17 +12289,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" thickBot="1"/>
@@ -12328,7 +12325,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12338,7 +12335,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="71" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12388,7 +12385,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12398,7 +12395,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" thickBot="1"/>
@@ -12414,7 +12411,7 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="21">
@@ -12631,12 +12628,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -12740,7 +12737,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12765,7 +12762,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -13241,7 +13238,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -13281,7 +13278,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -13291,7 +13288,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -13687,7 +13684,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1">
@@ -13697,7 +13694,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1">
@@ -13712,7 +13709,7 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
@@ -14042,7 +14039,7 @@
     </row>
     <row r="93" spans="1:1" ht="187.2">
       <c r="A93" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -14112,7 +14109,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="39" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -14175,7 +14172,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -14228,7 +14225,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="16" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -14520,7 +14517,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:1">
@@ -14650,7 +14647,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -15041,7 +15038,7 @@
     </row>
     <row r="3" spans="1:1" ht="27.75" customHeight="1">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27.75" customHeight="1">
@@ -15131,7 +15128,7 @@
     </row>
     <row r="22" spans="1:1" ht="27.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27.75" customHeight="1">
@@ -15590,7 +15587,7 @@
     </row>
     <row r="22" spans="1:1" ht="21">
       <c r="A22" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -15640,7 +15637,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -15943,9 +15940,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16081,26 +16081,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16124,9 +16113,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -2561,10 +2561,10 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -2974,7 +2974,7 @@
     <row r="90" spans="1:1">
       <c r="A90" s="38"/>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -3083,10 +3083,10 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -3144,7 +3144,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3194,12 +3194,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="43.2">
+    <row r="23" spans="1:1" ht="45">
       <c r="A23" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.4" thickBot="1">
+    <row r="75" spans="1:1" ht="29.25" thickBot="1">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3519,12 +3519,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.4" thickBot="1">
+    <row r="93" spans="1:1" ht="29.25" thickBot="1">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
         <v>315</v>
       </c>
@@ -3549,10 +3549,10 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -3595,7 +3595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>317</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8">
+    <row r="75" spans="1:1" ht="28.5">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3985,12 +3985,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="28.5">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
         <v>330</v>
       </c>
@@ -4019,10 +4019,10 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -4065,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="72">
+    <row r="9" spans="1:1" ht="75">
       <c r="A9" s="39" t="s">
         <v>345</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -4505,10 +4505,10 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -4566,7 +4566,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4941,12 +4941,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="30">
       <c r="A93" s="37" t="s">
         <v>529</v>
       </c>
@@ -4984,10 +4984,10 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -5045,7 +5045,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1">
+    <row r="25" spans="1:6" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -5464,10 +5464,10 @@
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -5510,7 +5510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="129.6">
+    <row r="9" spans="1:1" ht="150">
       <c r="A9" s="39" t="s">
         <v>266</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5900,12 +5900,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="37" t="s">
         <v>376</v>
       </c>
@@ -5946,10 +5946,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
@@ -5992,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.4" thickBot="1">
+    <row r="13" spans="1:4" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.4" thickBot="1">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -6423,14 +6423,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6488,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -6907,10 +6907,10 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6968,7 +6968,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7343,12 +7343,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
         <v>535</v>
       </c>
@@ -7386,10 +7386,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -7447,7 +7447,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -7862,18 +7862,18 @@
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1">
@@ -8833,10 +8833,10 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -8894,7 +8894,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -9306,10 +9306,10 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -9352,7 +9352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="43.2">
+    <row r="9" spans="1:1" ht="45">
       <c r="A9" s="1" t="s">
         <v>423</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9737,12 +9737,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
         <v>536</v>
       </c>
@@ -9781,12 +9781,12 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9841,8 +9841,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9897,8 +9897,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9993,8 +9993,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10129,8 +10129,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10215,8 +10215,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -10240,12 +10240,12 @@
       <selection activeCell="A71" sqref="A46:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10300,8 +10300,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10356,8 +10356,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10452,8 +10452,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10588,8 +10588,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10674,8 +10674,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -10702,12 +10702,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>466</v>
       </c>
@@ -10762,8 +10762,8 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10818,8 +10818,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10914,8 +10914,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11050,8 +11050,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11136,8 +11136,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -11169,12 +11169,12 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.4" thickBot="1">
+    <row r="1" spans="1:17" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8">
+    <row r="9" spans="1:17" ht="45">
       <c r="A9" s="1" t="s">
         <v>492</v>
       </c>
@@ -11277,8 +11277,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.4" thickBot="1">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11333,8 +11333,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11429,8 +11429,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11565,8 +11565,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11651,8 +11651,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -11679,12 +11679,12 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.4" thickBot="1">
+    <row r="1" spans="1:17" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11787,8 +11787,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.4" thickBot="1">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11843,8 +11843,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11939,8 +11939,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12075,8 +12075,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12161,8 +12161,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -12186,12 +12186,12 @@
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12246,8 +12246,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12302,8 +12302,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12398,8 +12398,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12534,8 +12534,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12620,8 +12620,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -12653,10 +12653,10 @@
       <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -12699,7 +12699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12714,8 +12714,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12770,8 +12770,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -13131,12 +13131,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="28.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -13246,7 +13246,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -13341,7 +13341,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13476,7 +13476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13561,12 +13561,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="72">
+    <row r="93" spans="1:1" ht="75">
       <c r="A93" s="37" t="s">
         <v>251</v>
       </c>
@@ -13601,10 +13601,10 @@
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14037,7 +14037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="187.2">
+    <row r="93" spans="1:1" ht="195">
       <c r="A93" s="1" t="s">
         <v>528</v>
       </c>
@@ -14062,12 +14062,12 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="149.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="28.5">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -14125,7 +14125,7 @@
     <row r="12" spans="1:1">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
@@ -14183,7 +14183,7 @@
     <row r="24" spans="1:1">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
@@ -14281,7 +14281,7 @@
     <row r="44" spans="1:1">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="51" t="s">
         <v>36</v>
       </c>
@@ -14422,7 +14422,7 @@
     <row r="73" spans="1:1">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="54" t="s">
         <v>55</v>
       </c>
@@ -14510,7 +14510,7 @@
     <row r="91" spans="1:1">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="56" t="s">
         <v>65</v>
       </c>
@@ -14539,10 +14539,10 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14600,7 +14600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -14655,7 +14655,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -14975,12 +14975,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="43.2">
+    <row r="93" spans="1:1" ht="45">
       <c r="A93" s="37" t="s">
         <v>288</v>
       </c>
@@ -15016,14 +15016,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15383,7 +15383,7 @@
     </row>
     <row r="76" spans="1:1" ht="27.75" customHeight="1">
       <c r="A76" s="37">
-        <v>4811</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="27.75" customHeight="1">
@@ -15403,7 +15403,7 @@
     </row>
     <row r="80" spans="1:1" ht="27.75" customHeight="1">
       <c r="A80" s="38">
-        <v>746</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="27.75" customHeight="1">
@@ -15461,7 +15461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="86.4">
+    <row r="93" spans="1:1" ht="90">
       <c r="A93" s="1" t="s">
         <v>343</v>
       </c>
@@ -15479,10 +15479,10 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -15540,7 +15540,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -15830,7 +15830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8">
+    <row r="75" spans="1:1" ht="28.5">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -15915,12 +15915,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="28.5">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
         <v>299</v>
       </c>
@@ -15949,6 +15949,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -16080,12 +16086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
@@ -16095,6 +16095,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16110,20 +16126,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CE3216-5465-401D-96FE-F0724F372422}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -1716,9 +1716,6 @@
     <t>https://gitlab.com/vimmp-semantics/vimmp-ontologies/-/raw/master/combined/combined-vimmp-ontologies.ttl</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/emmo-repo/EMMO/master/emmo.ttl</t>
-  </si>
-  <si>
     <t>well implemented and structured ontology. A structured controlled vocabulary for the annotation of experiments concerned with proteomics mass spectrometry.</t>
   </si>
   <si>
@@ -1739,6 +1736,9 @@
   </si>
   <si>
     <t>PSI-MS, Proteomics Standards Initiative Mass Spectroscopy Ontology</t>
+  </si>
+  <si>
+    <t>https://emmo-repo.github.io/versions/1.0.0-beta4/emmo.owl</t>
   </si>
 </sst>
 </file>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -6870,7 +6870,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7350,7 +7350,7 @@
     </row>
     <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9744,7 +9744,7 @@
     </row>
     <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -10223,7 +10223,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -12649,8 +12649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -13116,10 +13116,9 @@
     <hyperlink ref="A21" r:id="rId1"/>
     <hyperlink ref="A19" r:id="rId2"/>
     <hyperlink ref="A15" r:id="rId3"/>
-    <hyperlink ref="A17" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -15016,7 +15015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
@@ -15940,21 +15939,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -16086,10 +16070,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16111,19 +16120,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -2561,10 +2561,10 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -2974,7 +2974,7 @@
     <row r="90" spans="1:1">
       <c r="A90" s="38"/>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -3083,10 +3083,10 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -3144,7 +3144,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3194,12 +3194,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="45">
+    <row r="23" spans="1:1" ht="43.2">
       <c r="A23" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.25" thickBot="1">
+    <row r="75" spans="1:1" ht="29.4" thickBot="1">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3519,12 +3519,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.25" thickBot="1">
+    <row r="93" spans="1:1" ht="29.4" thickBot="1">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="28.8">
       <c r="A94" s="34" t="s">
         <v>315</v>
       </c>
@@ -3549,10 +3549,10 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -3595,7 +3595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>317</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.5">
+    <row r="75" spans="1:1" ht="28.8">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3985,12 +3985,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.5">
+    <row r="93" spans="1:1" ht="28.8">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="28.8">
       <c r="A94" s="34" t="s">
         <v>330</v>
       </c>
@@ -4019,10 +4019,10 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -4065,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="75">
+    <row r="9" spans="1:1" ht="72">
       <c r="A9" s="39" t="s">
         <v>345</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -4505,10 +4505,10 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -4566,7 +4566,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4941,12 +4941,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="30">
+    <row r="93" spans="1:1" ht="28.8">
       <c r="A93" s="37" t="s">
         <v>529</v>
       </c>
@@ -4984,10 +4984,10 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -5045,7 +5045,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.25" thickBot="1">
+    <row r="25" spans="1:6" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -5464,10 +5464,10 @@
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -5510,7 +5510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="150">
+    <row r="9" spans="1:1" ht="129.6">
       <c r="A9" s="39" t="s">
         <v>266</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5900,12 +5900,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="60">
+    <row r="93" spans="1:1" ht="57.6">
       <c r="A93" s="37" t="s">
         <v>376</v>
       </c>
@@ -5946,10 +5946,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
@@ -5992,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.25" thickBot="1">
+    <row r="13" spans="1:4" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.25" thickBot="1">
+    <row r="25" spans="1:3" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -6427,10 +6427,10 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6488,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -6907,10 +6907,10 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6968,7 +6968,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7343,12 +7343,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="60">
+    <row r="93" spans="1:1" ht="57.6">
       <c r="A93" s="1" t="s">
         <v>534</v>
       </c>
@@ -7386,10 +7386,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -7447,7 +7447,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -7857,23 +7857,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1">
@@ -8752,8 +8752,8 @@
         <v>235</v>
       </c>
       <c r="B32">
-        <f>COUNTA(A2:A30)</f>
-        <v>29</v>
+        <f>COUNTA(A2:A31)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="69.75" customHeight="1">
@@ -8761,8 +8761,8 @@
         <v>236</v>
       </c>
       <c r="B33">
-        <f>COUNTA(B2:B30)</f>
-        <v>29</v>
+        <f>COUNTA(B2:B31)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="69.75" customHeight="1">
@@ -8833,10 +8833,10 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -8894,7 +8894,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -9306,10 +9306,10 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -9352,7 +9352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="45">
+    <row r="9" spans="1:1" ht="43.2">
       <c r="A9" s="1" t="s">
         <v>423</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9737,12 +9737,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="60">
+    <row r="93" spans="1:1" ht="57.6">
       <c r="A93" s="1" t="s">
         <v>535</v>
       </c>
@@ -9781,12 +9781,12 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9841,8 +9841,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9897,8 +9897,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9993,8 +9993,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10129,8 +10129,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10215,8 +10215,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -10240,12 +10240,12 @@
       <selection activeCell="A71" sqref="A46:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10300,8 +10300,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10356,8 +10356,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10452,8 +10452,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10588,8 +10588,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10674,8 +10674,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -10702,12 +10702,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>466</v>
       </c>
@@ -10762,8 +10762,8 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10818,8 +10818,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10914,8 +10914,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11050,8 +11050,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11136,8 +11136,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -11169,12 +11169,12 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.25" thickBot="1">
+    <row r="1" spans="1:17" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="45">
+    <row r="9" spans="1:17" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>492</v>
       </c>
@@ -11277,8 +11277,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.25" thickBot="1">
+    <row r="12" spans="1:17" ht="15" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11333,8 +11333,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11429,8 +11429,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11565,8 +11565,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11651,8 +11651,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -11679,12 +11679,12 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.25" thickBot="1">
+    <row r="1" spans="1:17" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11787,8 +11787,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.25" thickBot="1">
+    <row r="12" spans="1:17" ht="15" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11843,8 +11843,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11939,8 +11939,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12075,8 +12075,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12161,8 +12161,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -12186,12 +12186,12 @@
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" thickBot="1">
+    <row r="1" spans="1:1" ht="29.4" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12246,8 +12246,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12302,8 +12302,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12398,8 +12398,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.25" thickBot="1">
+    <row r="44" spans="1:1" ht="15" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.4" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12534,8 +12534,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.25" thickBot="1">
+    <row r="73" spans="1:1" ht="15" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.4" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12620,8 +12620,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="91" spans="1:1" ht="15" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -12649,14 +12649,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -12699,7 +12699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="28.8">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12714,8 +12714,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.25" thickBot="1">
+    <row r="12" spans="1:1" ht="15" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.4" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12770,8 +12770,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.25" thickBot="1">
+    <row r="24" spans="1:1" ht="15" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.4" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -13130,12 +13130,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13560,12 +13560,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="75">
+    <row r="93" spans="1:1" ht="72">
       <c r="A93" s="37" t="s">
         <v>251</v>
       </c>
@@ -13600,10 +13600,10 @@
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14036,7 +14036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="195">
+    <row r="93" spans="1:1" ht="187.2">
       <c r="A93" s="1" t="s">
         <v>528</v>
       </c>
@@ -14061,12 +14061,12 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.5">
+    <row r="1" spans="1:1" ht="28.8">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -14124,7 +14124,7 @@
     <row r="12" spans="1:1">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
@@ -14182,7 +14182,7 @@
     <row r="24" spans="1:1">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
@@ -14280,7 +14280,7 @@
     <row r="44" spans="1:1">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="51" t="s">
         <v>36</v>
       </c>
@@ -14421,7 +14421,7 @@
     <row r="73" spans="1:1">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="54" t="s">
         <v>55</v>
       </c>
@@ -14509,7 +14509,7 @@
     <row r="91" spans="1:1">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="29.25" thickBot="1">
+    <row r="92" spans="1:1" ht="29.4" thickBot="1">
       <c r="A92" s="56" t="s">
         <v>65</v>
       </c>
@@ -14538,10 +14538,10 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14599,7 +14599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.5">
+    <row r="74" spans="1:1" ht="28.8">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -14974,12 +14974,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.5">
+    <row r="92" spans="1:1" ht="28.8">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="45">
+    <row r="93" spans="1:1" ht="43.2">
       <c r="A93" s="37" t="s">
         <v>288</v>
       </c>
@@ -15019,10 +15019,10 @@
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15460,7 +15460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="90">
+    <row r="93" spans="1:1" ht="86.4">
       <c r="A93" s="1" t="s">
         <v>343</v>
       </c>
@@ -15478,10 +15478,10 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="147.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -15539,7 +15539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.5">
+    <row r="13" spans="1:1" ht="28.8">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.5">
+    <row r="25" spans="1:1" ht="28.8">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.5">
+    <row r="45" spans="1:1" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.5">
+    <row r="75" spans="1:1" ht="28.8">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -15914,12 +15914,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.5">
+    <row r="93" spans="1:1" ht="28.8">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="30">
+    <row r="94" spans="1:1" ht="28.8">
       <c r="A94" s="34" t="s">
         <v>299</v>
       </c>
@@ -15939,6 +15939,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -16070,35 +16085,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16120,9 +16110,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="10" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="541">
   <si>
     <t>Ontology</t>
   </si>
@@ -2561,10 +2561,10 @@
       <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -2607,7 +2607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -2974,7 +2974,7 @@
     <row r="90" spans="1:1">
       <c r="A90" s="38"/>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -3083,10 +3083,10 @@
       <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -3144,7 +3144,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3194,12 +3194,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="43.2">
+    <row r="23" spans="1:1" ht="45">
       <c r="A23" s="39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="29.4" thickBot="1">
+    <row r="75" spans="1:1" ht="29.25" thickBot="1">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3519,12 +3519,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="29.4" thickBot="1">
+    <row r="93" spans="1:1" ht="29.25" thickBot="1">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
         <v>315</v>
       </c>
@@ -3545,14 +3545,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -3595,7 +3595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>317</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8">
+    <row r="75" spans="1:1" ht="28.5">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -3941,8 +3941,8 @@
       </c>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="38" t="s">
-        <v>60</v>
+      <c r="A83" s="38">
+        <v>6566</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="21">
@@ -3985,12 +3985,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="28.5">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
         <v>330</v>
       </c>
@@ -4019,10 +4019,10 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -4065,7 +4065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="72">
+    <row r="9" spans="1:1" ht="75">
       <c r="A9" s="39" t="s">
         <v>345</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +4230,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -4505,10 +4505,10 @@
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -4566,7 +4566,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -4941,12 +4941,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="30">
       <c r="A93" s="37" t="s">
         <v>529</v>
       </c>
@@ -4984,10 +4984,10 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -5045,7 +5045,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.4" thickBot="1">
+    <row r="25" spans="1:6" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -5464,10 +5464,10 @@
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -5510,7 +5510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="129.6">
+    <row r="9" spans="1:1" ht="150">
       <c r="A9" s="39" t="s">
         <v>266</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -5900,12 +5900,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="37" t="s">
         <v>376</v>
       </c>
@@ -5946,10 +5946,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
@@ -5992,7 +5992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="28.8">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="29.4" thickBot="1">
+    <row r="13" spans="1:4" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="29.4" thickBot="1">
+    <row r="25" spans="1:3" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -6427,10 +6427,10 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6488,7 +6488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -6907,10 +6907,10 @@
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -6968,7 +6968,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7343,12 +7343,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
         <v>534</v>
       </c>
@@ -7386,10 +7386,10 @@
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -7447,7 +7447,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -7857,23 +7857,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="71.88671875" defaultRowHeight="69.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="71.85546875" defaultRowHeight="69.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="86.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1">
@@ -8833,10 +8833,10 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -8894,7 +8894,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -8949,7 +8949,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -9306,10 +9306,10 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -9352,7 +9352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="43.2">
+    <row r="9" spans="1:1" ht="45">
       <c r="A9" s="1" t="s">
         <v>423</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -9737,12 +9737,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="57.6">
+    <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
         <v>535</v>
       </c>
@@ -9781,12 +9781,12 @@
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9841,8 +9841,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -9897,8 +9897,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -9993,8 +9993,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10129,8 +10129,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10215,8 +10215,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -10240,12 +10240,12 @@
       <selection activeCell="A71" sqref="A46:A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10300,8 +10300,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10356,8 +10356,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10452,8 +10452,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -10588,8 +10588,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -10674,8 +10674,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -10702,12 +10702,12 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>466</v>
       </c>
@@ -10762,8 +10762,8 @@
         <v>467</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -10818,8 +10818,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -10914,8 +10914,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11050,8 +11050,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11136,8 +11136,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -11169,12 +11169,12 @@
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.4" thickBot="1">
+    <row r="1" spans="1:17" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="28.8">
+    <row r="9" spans="1:17" ht="45">
       <c r="A9" s="1" t="s">
         <v>492</v>
       </c>
@@ -11277,8 +11277,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.4" thickBot="1">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11333,8 +11333,8 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11429,8 +11429,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -11565,8 +11565,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -11651,8 +11651,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -11679,12 +11679,12 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="29.4" thickBot="1">
+    <row r="1" spans="1:17" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11787,8 +11787,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1"/>
-    <row r="13" spans="1:17" ht="29.4" thickBot="1">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:17" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -11843,8 +11843,8 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -11939,8 +11939,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12075,8 +12075,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12161,8 +12161,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -12186,12 +12186,12 @@
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="143.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="143.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.4" thickBot="1">
+    <row r="1" spans="1:1" ht="29.25" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12246,8 +12246,8 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12302,8 +12302,8 @@
         <v>519</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12398,8 +12398,8 @@
         <v>471</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15" thickBot="1"/>
-    <row r="45" spans="1:1" ht="29.4" thickBot="1">
+    <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="45" spans="1:1" ht="29.25" thickBot="1">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -12534,8 +12534,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15" thickBot="1"/>
-    <row r="74" spans="1:1" ht="29.4" thickBot="1">
+    <row r="73" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="74" spans="1:1" ht="29.25" thickBot="1">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -12620,8 +12620,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15" thickBot="1"/>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="91" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -12653,10 +12653,10 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -12699,7 +12699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -12714,8 +12714,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15" thickBot="1"/>
-    <row r="13" spans="1:1" ht="29.4" thickBot="1">
+    <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:1" ht="29.25" thickBot="1">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -12770,8 +12770,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15" thickBot="1"/>
-    <row r="25" spans="1:1" ht="29.4" thickBot="1">
+    <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
+    <row r="25" spans="1:1" ht="29.25" thickBot="1">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
@@ -13130,12 +13130,12 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="28.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -13475,7 +13475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -13560,12 +13560,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="72">
+    <row r="93" spans="1:1" ht="75">
       <c r="A93" s="37" t="s">
         <v>251</v>
       </c>
@@ -13600,10 +13600,10 @@
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14036,7 +14036,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="187.2">
+    <row r="93" spans="1:1" ht="195">
       <c r="A93" s="1" t="s">
         <v>528</v>
       </c>
@@ -14061,12 +14061,12 @@
       <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="149.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="149.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8">
+    <row r="1" spans="1:1" ht="28.5">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -14124,7 +14124,7 @@
     <row r="12" spans="1:1">
       <c r="A12" s="16"/>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="45" t="s">
         <v>11</v>
       </c>
@@ -14182,7 +14182,7 @@
     <row r="24" spans="1:1">
       <c r="A24" s="16"/>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="48" t="s">
         <v>21</v>
       </c>
@@ -14280,7 +14280,7 @@
     <row r="44" spans="1:1">
       <c r="A44" s="16"/>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="51" t="s">
         <v>36</v>
       </c>
@@ -14421,7 +14421,7 @@
     <row r="73" spans="1:1">
       <c r="A73" s="16"/>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="54" t="s">
         <v>55</v>
       </c>
@@ -14509,7 +14509,7 @@
     <row r="91" spans="1:1">
       <c r="A91" s="16"/>
     </row>
-    <row r="92" spans="1:1" ht="29.4" thickBot="1">
+    <row r="92" spans="1:1" ht="29.25" thickBot="1">
       <c r="A92" s="56" t="s">
         <v>65</v>
       </c>
@@ -14538,10 +14538,10 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -14599,7 +14599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -14889,7 +14889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="28.8">
+    <row r="74" spans="1:1" ht="28.5">
       <c r="A74" s="35" t="s">
         <v>55</v>
       </c>
@@ -14974,12 +14974,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="28.8">
+    <row r="92" spans="1:1" ht="28.5">
       <c r="A92" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="43.2">
+    <row r="93" spans="1:1" ht="45">
       <c r="A93" s="37" t="s">
         <v>288</v>
       </c>
@@ -15019,10 +15019,10 @@
       <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="148.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.5546875" customWidth="1"/>
+    <col min="1" max="1" width="148.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1" thickBot="1">
@@ -15460,7 +15460,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="86.4">
+    <row r="93" spans="1:1" ht="90">
       <c r="A93" s="1" t="s">
         <v>343</v>
       </c>
@@ -15478,10 +15478,10 @@
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="147.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="147.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.75" customHeight="1">
@@ -15539,7 +15539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="28.8">
+    <row r="13" spans="1:1" ht="28.5">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -15594,7 +15594,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="28.8">
+    <row r="25" spans="1:1" ht="28.5">
       <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="28.8">
+    <row r="45" spans="1:1" ht="28.5">
       <c r="A45" s="7" t="s">
         <v>36</v>
       </c>
@@ -15829,7 +15829,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="28.8">
+    <row r="75" spans="1:1" ht="28.5">
       <c r="A75" s="35" t="s">
         <v>55</v>
       </c>
@@ -15914,12 +15914,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="28.8">
+    <row r="93" spans="1:1" ht="28.5">
       <c r="A93" s="32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="28.8">
+    <row r="94" spans="1:1" ht="30">
       <c r="A94" s="34" t="s">
         <v>299</v>
       </c>
@@ -15939,21 +15939,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -16085,10 +16070,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16110,19 +16120,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/master_table/MT_OntoWorldMap_2023-06-13.xlsx
+++ b/master_table/MT_OntoWorldMap_2023-06-13.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="10" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Template mit Beispiel" sheetId="4" r:id="rId1"/>
@@ -1578,9 +1578,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>metadata4Ing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Metadata4Ing Workgroup: Ashish Karmacharya, Benjamin Farnbacher, Cord Wiljes, Dorothea Iglezakis, Džulia Terzijska, Giacomo Lanza, Johanna Hickmann, Johannes Theissen-Lipp, Johannes Munke, Jürgen Windeck, Marc Fuhrmans, Martin Thomas Horsch, Nils Hoppe, Sophia Leimer, Stephan Hachinger, Susanne Arndt, </t>
   </si>
   <si>
@@ -1739,6 +1736,9 @@
   </si>
   <si>
     <t>https://emmo-repo.github.io/versions/1.0.0-beta4/emmo.owl</t>
+  </si>
+  <si>
+    <t>metadata4ing</t>
   </si>
 </sst>
 </file>
@@ -3545,7 +3545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -4948,7 +4948,7 @@
     </row>
     <row r="93" spans="1:1" ht="30">
       <c r="A93" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -5238,7 +5238,7 @@
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="21">
@@ -5248,7 +5248,7 @@
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="21">
@@ -5258,7 +5258,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="21">
@@ -5547,7 +5547,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -6455,7 +6455,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="21">
@@ -6870,7 +6870,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7350,7 +7350,7 @@
     </row>
     <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -9744,7 +9744,7 @@
     </row>
     <row r="93" spans="1:1" ht="60">
       <c r="A93" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -10223,7 +10223,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -11165,8 +11165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11206,7 +11206,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="21">
@@ -11216,7 +11216,7 @@
     </row>
     <row r="9" spans="1:17" ht="45">
       <c r="A9" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
         <v>475</v>
@@ -11274,7 +11274,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
@@ -11290,7 +11290,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11320,7 +11320,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
@@ -11330,7 +11330,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11346,7 +11346,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11386,7 +11386,7 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -11416,7 +11416,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -11426,7 +11426,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11659,7 +11659,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -11696,7 +11696,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="21">
@@ -11726,7 +11726,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="74" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s">
         <v>475</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1"/>
@@ -11800,7 +11800,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="21">
@@ -11810,7 +11810,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -11820,7 +11820,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -11830,7 +11830,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
@@ -11840,7 +11840,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -11856,7 +11856,7 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -11926,7 +11926,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12169,7 +12169,7 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21">
@@ -12233,7 +12233,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -12243,7 +12243,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="21">
@@ -12269,7 +12269,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -12279,7 +12279,7 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="21">
@@ -12289,7 +12289,7 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="21">
@@ -12299,7 +12299,7 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1"/>
@@ -12325,7 +12325,7 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -12385,7 +12385,7 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -12628,12 +12628,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="21">
@@ -13683,7 +13683,7 @@
     </row>
     <row r="17" spans="1:1" ht="27.75" customHeight="1">
       <c r="A17" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27.75" customHeight="1">
@@ -13693,7 +13693,7 @@
     </row>
     <row r="19" spans="1:1" ht="27.75" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27.75" customHeight="1">
@@ -14038,7 +14038,7 @@
     </row>
     <row r="93" spans="1:1" ht="195">
       <c r="A93" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -14108,7 +14108,7 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="21">
@@ -15939,6 +15939,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100E35C4A3F015220429587A6885988F55A" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="d6504310574d90ff3af330d88d4b27c4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="43c33c4e-3078-430a-a993-ec9e07a267b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7023e3b9e2c813b12cebe0f0ea1d5cce" ns2:_="">
     <xsd:import namespace="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
@@ -16070,35 +16085,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16120,9 +16110,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4E38D5B-D85B-4D43-8837-BDE8BD7F5B8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3709C412-EE61-448D-9135-2444D463CA94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="43c33c4e-3078-430a-a993-ec9e07a267b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>